--- a/updatedTables.xlsx
+++ b/updatedTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\UCM\Fall22\CSE111\Final_Project\CSE111_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2a9e0f2cdcd083c/Documents/UCM/Fall22/CSE111/Final_Project/CSE111_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407B103-E72A-41B4-A238-2C77B4AC983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D407B103-E72A-41B4-A238-2C77B4AC983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{721F49A3-D694-475A-9B0A-91CE02FD1494}"/>
   <bookViews>
-    <workbookView xWindow="27250" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04355D55-975A-46DE-A4FD-034198C20623}"/>
+    <workbookView xWindow="27250" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{04355D55-975A-46DE-A4FD-034198C20623}"/>
   </bookViews>
   <sheets>
     <sheet name="Automobile" sheetId="6" r:id="rId1"/>
@@ -637,7 +637,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -684,7 +684,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5151B134-7B5D-4989-9AA1-455D134D7359}">
   <dimension ref="B1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5504,9 +5504,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B93CC-4546-474A-9695-878A5CFF839C}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5528,6 +5530,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
+        <f>A2+1</f>
         <v>3101</v>
       </c>
       <c r="B3">
@@ -5536,7 +5539,8 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3103</v>
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3102</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5544,7 +5548,8 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3104</v>
+        <f t="shared" si="0"/>
+        <v>3103</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -5552,7 +5557,8 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3105</v>
+        <f t="shared" si="0"/>
+        <v>3104</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5560,7 +5566,8 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>3107</v>
+        <f t="shared" si="0"/>
+        <v>3105</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5568,7 +5575,8 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>3109</v>
+        <f t="shared" si="0"/>
+        <v>3106</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5576,7 +5584,8 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>3110</v>
+        <f t="shared" si="0"/>
+        <v>3107</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -5584,7 +5593,8 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>3111</v>
+        <f t="shared" si="0"/>
+        <v>3108</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5592,7 +5602,8 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3112</v>
+        <f t="shared" si="0"/>
+        <v>3109</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -5600,7 +5611,8 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>3114</v>
+        <f t="shared" si="0"/>
+        <v>3110</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5608,7 +5620,8 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3115</v>
+        <f t="shared" si="0"/>
+        <v>3111</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5616,7 +5629,8 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3116</v>
+        <f t="shared" si="0"/>
+        <v>3112</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5624,7 +5638,8 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3118</v>
+        <f t="shared" si="0"/>
+        <v>3113</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -5632,7 +5647,8 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3119</v>
+        <f t="shared" si="0"/>
+        <v>3114</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -5640,7 +5656,8 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3121</v>
+        <f t="shared" si="0"/>
+        <v>3115</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -5648,7 +5665,8 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3122</v>
+        <f t="shared" si="0"/>
+        <v>3116</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5656,7 +5674,8 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>3123</v>
+        <f t="shared" si="0"/>
+        <v>3117</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5664,7 +5683,8 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>3124</v>
+        <f t="shared" si="0"/>
+        <v>3118</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5672,7 +5692,8 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>3125</v>
+        <f t="shared" si="0"/>
+        <v>3119</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5680,7 +5701,8 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>3126</v>
+        <f t="shared" si="0"/>
+        <v>3120</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5688,7 +5710,8 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>3127</v>
+        <f t="shared" si="0"/>
+        <v>3121</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5696,7 +5719,8 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3128</v>
+        <f t="shared" si="0"/>
+        <v>3122</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -5704,7 +5728,8 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>3129</v>
+        <f t="shared" si="0"/>
+        <v>3123</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5712,7 +5737,8 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3130</v>
+        <f t="shared" si="0"/>
+        <v>3124</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -5720,7 +5746,8 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3131</v>
+        <f t="shared" si="0"/>
+        <v>3125</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5728,7 +5755,8 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3132</v>
+        <f t="shared" si="0"/>
+        <v>3126</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -5736,7 +5764,8 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>3134</v>
+        <f t="shared" si="0"/>
+        <v>3127</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5744,7 +5773,8 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3135</v>
+        <f t="shared" si="0"/>
+        <v>3128</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5752,7 +5782,8 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>3138</v>
+        <f t="shared" si="0"/>
+        <v>3129</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5760,7 +5791,8 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>3139</v>
+        <f t="shared" si="0"/>
+        <v>3130</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -5768,7 +5800,8 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>3140</v>
+        <f t="shared" si="0"/>
+        <v>3131</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5776,7 +5809,8 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>3141</v>
+        <f t="shared" si="0"/>
+        <v>3132</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5784,7 +5818,8 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3143</v>
+        <f t="shared" si="0"/>
+        <v>3133</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -5792,7 +5827,8 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>3145</v>
+        <f t="shared" si="0"/>
+        <v>3134</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -5800,7 +5836,8 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>3146</v>
+        <f t="shared" si="0"/>
+        <v>3135</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -5808,7 +5845,8 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>3147</v>
+        <f t="shared" si="0"/>
+        <v>3136</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -5816,7 +5854,8 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>3148</v>
+        <f t="shared" si="0"/>
+        <v>3137</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -5824,7 +5863,8 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>3149</v>
+        <f t="shared" si="0"/>
+        <v>3138</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -5832,7 +5872,8 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>3150</v>
+        <f t="shared" si="0"/>
+        <v>3139</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -5840,7 +5881,8 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>3153</v>
+        <f t="shared" si="0"/>
+        <v>3140</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5848,7 +5890,8 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>3155</v>
+        <f t="shared" si="0"/>
+        <v>3141</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5856,7 +5899,8 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>3156</v>
+        <f t="shared" si="0"/>
+        <v>3142</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -5864,7 +5908,8 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>3158</v>
+        <f t="shared" si="0"/>
+        <v>3143</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -5872,7 +5917,8 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>3159</v>
+        <f t="shared" si="0"/>
+        <v>3144</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -5880,7 +5926,8 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3160</v>
+        <f t="shared" si="0"/>
+        <v>3145</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5888,7 +5935,8 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>3161</v>
+        <f t="shared" si="0"/>
+        <v>3146</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -5896,7 +5944,8 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>3162</v>
+        <f t="shared" si="0"/>
+        <v>3147</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -5904,7 +5953,8 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>3164</v>
+        <f t="shared" si="0"/>
+        <v>3148</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5912,7 +5962,8 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>3165</v>
+        <f t="shared" si="0"/>
+        <v>3149</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -5920,7 +5971,8 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>3166</v>
+        <f t="shared" si="0"/>
+        <v>3150</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -5928,7 +5980,8 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>3167</v>
+        <f t="shared" si="0"/>
+        <v>3151</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -5936,7 +5989,8 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>3168</v>
+        <f t="shared" si="0"/>
+        <v>3152</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -5944,7 +5998,8 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3169</v>
+        <f t="shared" si="0"/>
+        <v>3153</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -5952,7 +6007,8 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>3170</v>
+        <f t="shared" si="0"/>
+        <v>3154</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5960,7 +6016,8 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3172</v>
+        <f t="shared" si="0"/>
+        <v>3155</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -5968,7 +6025,8 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>3173</v>
+        <f t="shared" si="0"/>
+        <v>3156</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -5976,7 +6034,8 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>3175</v>
+        <f t="shared" si="0"/>
+        <v>3157</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -5984,7 +6043,8 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>3176</v>
+        <f t="shared" si="0"/>
+        <v>3158</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -5992,7 +6052,8 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>3177</v>
+        <f t="shared" si="0"/>
+        <v>3159</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -6000,7 +6061,8 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>3178</v>
+        <f t="shared" si="0"/>
+        <v>3160</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -6008,7 +6070,8 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>3179</v>
+        <f t="shared" si="0"/>
+        <v>3161</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -6016,7 +6079,8 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>3180</v>
+        <f t="shared" si="0"/>
+        <v>3162</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -6024,7 +6088,8 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>3181</v>
+        <f t="shared" si="0"/>
+        <v>3163</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -6032,7 +6097,8 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>3182</v>
+        <f t="shared" si="0"/>
+        <v>3164</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -6040,7 +6106,8 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>3183</v>
+        <f t="shared" si="0"/>
+        <v>3165</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -6048,7 +6115,8 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>3185</v>
+        <f t="shared" ref="A68:A121" si="1">A67+1</f>
+        <v>3166</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -6056,7 +6124,8 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>3186</v>
+        <f t="shared" si="1"/>
+        <v>3167</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -6064,7 +6133,8 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>3187</v>
+        <f t="shared" si="1"/>
+        <v>3168</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -6072,7 +6142,8 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>3188</v>
+        <f t="shared" si="1"/>
+        <v>3169</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -6080,7 +6151,8 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>3190</v>
+        <f t="shared" si="1"/>
+        <v>3170</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -6088,7 +6160,8 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>3192</v>
+        <f t="shared" si="1"/>
+        <v>3171</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -6096,7 +6169,8 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>3193</v>
+        <f t="shared" si="1"/>
+        <v>3172</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -6104,7 +6178,8 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>3194</v>
+        <f t="shared" si="1"/>
+        <v>3173</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -6112,7 +6187,8 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>3195</v>
+        <f t="shared" si="1"/>
+        <v>3174</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6120,7 +6196,8 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>3196</v>
+        <f t="shared" si="1"/>
+        <v>3175</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -6128,7 +6205,8 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>3198</v>
+        <f t="shared" si="1"/>
+        <v>3176</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -6136,7 +6214,8 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>3199</v>
+        <f t="shared" si="1"/>
+        <v>3177</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -6144,7 +6223,8 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>3200</v>
+        <f t="shared" si="1"/>
+        <v>3178</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -6152,7 +6232,8 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>3201</v>
+        <f t="shared" si="1"/>
+        <v>3179</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -6160,7 +6241,8 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>3202</v>
+        <f t="shared" si="1"/>
+        <v>3180</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -6168,7 +6250,8 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>3204</v>
+        <f t="shared" si="1"/>
+        <v>3181</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -6176,7 +6259,8 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>3206</v>
+        <f t="shared" si="1"/>
+        <v>3182</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -6184,7 +6268,8 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>3207</v>
+        <f t="shared" si="1"/>
+        <v>3183</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -6192,7 +6277,8 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>3208</v>
+        <f t="shared" si="1"/>
+        <v>3184</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6200,7 +6286,8 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>3209</v>
+        <f t="shared" si="1"/>
+        <v>3185</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -6208,7 +6295,8 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>3210</v>
+        <f t="shared" si="1"/>
+        <v>3186</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -6216,7 +6304,8 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>3211</v>
+        <f t="shared" si="1"/>
+        <v>3187</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -6224,7 +6313,8 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>3212</v>
+        <f t="shared" si="1"/>
+        <v>3188</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -6232,7 +6322,8 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>3213</v>
+        <f t="shared" si="1"/>
+        <v>3189</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -6240,7 +6331,8 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>3214</v>
+        <f t="shared" si="1"/>
+        <v>3190</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -6248,7 +6340,8 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>3215</v>
+        <f t="shared" si="1"/>
+        <v>3191</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -6256,7 +6349,8 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>3216</v>
+        <f t="shared" si="1"/>
+        <v>3192</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6264,7 +6358,8 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>3217</v>
+        <f t="shared" si="1"/>
+        <v>3193</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -6272,10 +6367,236 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>3218</v>
+        <f t="shared" si="1"/>
+        <v>3194</v>
       </c>
       <c r="B96">
         <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>3195</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>3196</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>3197</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>3198</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>3199</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>3201</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>3202</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>3203</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>3204</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>3205</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>3206</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>3207</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>3208</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>3209</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>3210</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>3211</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>3212</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>3213</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>3214</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>3215</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>3216</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>3217</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>3218</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>3219</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6869,7 +7190,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G32" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,2)</f>
@@ -6877,27 +7198,27 @@
       </c>
       <c r="I1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K1">
         <f t="shared" ref="K1:K32" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1">
         <f ca="1">VLOOKUP(K1,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M1">
         <f t="shared" ref="M1:M32" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N1" t="str">
         <f ca="1">VLOOKUP(M1,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -6915,7 +7236,7 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,2)</f>
@@ -6923,19 +7244,19 @@
       </c>
       <c r="I2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <f ca="1">VLOOKUP(K2,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="2"/>
@@ -6961,19 +7282,19 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
@@ -6985,11 +7306,11 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="str">
         <f ca="1">VLOOKUP(M3,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -7007,7 +7328,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,2)</f>
@@ -7015,27 +7336,27 @@
       </c>
       <c r="I4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <f ca="1">VLOOKUP(K4,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="str">
         <f ca="1">VLOOKUP(M4,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -7053,15 +7374,15 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,4)</f>
@@ -7069,19 +7390,19 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <f ca="1">VLOOKUP(K5,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">VLOOKUP(M5,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -7099,19 +7420,19 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
@@ -7123,11 +7444,11 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="str">
         <f ca="1">VLOOKUP(M6,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -7161,19 +7482,19 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <f ca="1">VLOOKUP(K7,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="str">
         <f ca="1">VLOOKUP(M7,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -7191,35 +7512,35 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>F-150</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Pick-up</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <f ca="1">VLOOKUP(K8,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="str">
         <f ca="1">VLOOKUP(M8,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -7237,35 +7558,35 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <f ca="1">VLOOKUP(K9,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="str">
         <f ca="1">VLOOKUP(M9,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -7283,15 +7604,15 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,4)</f>
@@ -7299,19 +7620,19 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f ca="1">VLOOKUP(K10,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="str">
         <f ca="1">VLOOKUP(M10,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -7329,35 +7650,35 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H11" t="str">
         <f ca="1">VLOOKUP(G11,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I11" t="str">
         <f ca="1">VLOOKUP(G11,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J11" t="str">
         <f ca="1">VLOOKUP(G11,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <f ca="1">VLOOKUP(K11,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="str">
         <f ca="1">VLOOKUP(M11,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -7375,7 +7696,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,2)</f>
@@ -7391,19 +7712,19 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <f ca="1">VLOOKUP(K12,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="str">
         <f ca="1">VLOOKUP(M12,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -7421,15 +7742,15 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H13" t="str">
         <f ca="1">VLOOKUP(G13,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I13" t="str">
         <f ca="1">VLOOKUP(G13,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">VLOOKUP(G13,Sheet1!$A$2:$D$12,4)</f>
@@ -7437,19 +7758,19 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <f ca="1">VLOOKUP(K13,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="str">
         <f ca="1">VLOOKUP(M13,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -7467,19 +7788,19 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
@@ -7491,11 +7812,11 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="str">
         <f ca="1">VLOOKUP(M14,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -7513,15 +7834,15 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,4)</f>
@@ -7529,19 +7850,19 @@
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <f ca="1">VLOOKUP(K15,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="str">
         <f ca="1">VLOOKUP(M15,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -7559,15 +7880,15 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,4)</f>
@@ -7575,11 +7896,11 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <f ca="1">VLOOKUP(K16,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
@@ -7605,7 +7926,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="str">
         <f ca="1">VLOOKUP(G17,Sheet1!$A$2:$D$12,2)</f>
@@ -7621,19 +7942,19 @@
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f ca="1">VLOOKUP(K17,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="str">
         <f ca="1">VLOOKUP(M17,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
@@ -7651,19 +7972,19 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
@@ -7675,11 +7996,11 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="str">
         <f ca="1">VLOOKUP(M18,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -7697,19 +8018,19 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
@@ -7721,11 +8042,11 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="str">
         <f ca="1">VLOOKUP(M19,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
@@ -7743,7 +8064,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,2)</f>
@@ -7751,27 +8072,27 @@
       </c>
       <c r="I20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <f ca="1">VLOOKUP(K20,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="str">
         <f ca="1">VLOOKUP(M20,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
@@ -7789,19 +8110,19 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Explorer</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>SUV</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
@@ -7813,11 +8134,11 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="str">
         <f ca="1">VLOOKUP(M21,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
@@ -7839,37 +8160,37 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <f ca="1">VLOOKUP(K22,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="str">
         <f ca="1">VLOOKUP(M22,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Silverado</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
@@ -7897,15 +8218,15 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H24" t="str">
         <f ca="1">VLOOKUP(G24,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I24" t="str">
         <f ca="1">VLOOKUP(G24,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">VLOOKUP(G24,Sheet1!$A$2:$D$12,4)</f>
@@ -7913,19 +8234,19 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <f ca="1">VLOOKUP(K24,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="str">
         <f ca="1">VLOOKUP(M24,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
@@ -7940,7 +8261,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,2)</f>
@@ -7956,19 +8277,19 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <f ca="1">VLOOKUP(K25,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="str">
         <f ca="1">VLOOKUP(M25,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
@@ -7983,7 +8304,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,2)</f>
@@ -7999,19 +8320,19 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <f ca="1">VLOOKUP(K26,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="str">
         <f ca="1">VLOOKUP(M26,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
@@ -8026,7 +8347,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,2)</f>
@@ -8042,19 +8363,19 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <f ca="1">VLOOKUP(K27,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="str">
         <f ca="1">VLOOKUP(M27,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
@@ -8069,49 +8390,49 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <f ca="1">VLOOKUP(K28,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="str">
         <f ca="1">VLOOKUP(M28,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,4)</f>
@@ -8127,11 +8448,11 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="str">
         <f ca="1">VLOOKUP(M29,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
@@ -8143,35 +8464,35 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Explorer</v>
       </c>
       <c r="J30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>SUV</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30">
         <f ca="1">VLOOKUP(K30,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="str">
         <f ca="1">VLOOKUP(M30,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
@@ -8183,7 +8504,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,2)</f>
@@ -8191,27 +8512,27 @@
       </c>
       <c r="I31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Dart</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <f ca="1">VLOOKUP(K31,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="str">
         <f ca="1">VLOOKUP(M31,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
@@ -8223,15 +8544,15 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,4)</f>
@@ -8247,11 +8568,11 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="str">
         <f ca="1">VLOOKUP(M32,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
@@ -8263,15 +8584,15 @@
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G64" ca="1" si="3">RANDBETWEEN(1,20)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,4)</f>
@@ -8279,19 +8600,19 @@
       </c>
       <c r="K33">
         <f t="shared" ref="K33:K64" ca="1" si="4">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <f ca="1">VLOOKUP(K33,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M64" ca="1" si="5">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="str">
         <f ca="1">VLOOKUP(M33,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
@@ -8303,7 +8624,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,2)</f>
@@ -8327,25 +8648,25 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="str">
         <f ca="1">VLOOKUP(M34,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Focus</v>
       </c>
       <c r="J35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,4)</f>
@@ -8353,135 +8674,135 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <f ca="1">VLOOKUP(K35,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" t="str">
         <f ca="1">VLOOKUP(M35,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <f ca="1">VLOOKUP(K36,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="str">
         <f ca="1">VLOOKUP(M36,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37">
         <f ca="1">VLOOKUP(K37,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="str">
         <f ca="1">VLOOKUP(M37,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H38" t="str">
         <f ca="1">VLOOKUP(G38,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I38" t="str">
         <f ca="1">VLOOKUP(G38,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J38" t="str">
         <f ca="1">VLOOKUP(G38,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <f ca="1">VLOOKUP(K38,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="str">
         <f ca="1">VLOOKUP(M38,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,4)</f>
@@ -8489,33 +8810,33 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <f ca="1">VLOOKUP(K39,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" t="str">
         <f ca="1">VLOOKUP(M39,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,4)</f>
@@ -8523,59 +8844,59 @@
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <f ca="1">VLOOKUP(K40,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="str">
         <f ca="1">VLOOKUP(M40,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <f ca="1">VLOOKUP(K41,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="str">
         <f ca="1">VLOOKUP(M41,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H42" t="str">
         <f ca="1">VLOOKUP(G42,Sheet1!$A$2:$D$12,2)</f>
@@ -8591,11 +8912,11 @@
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <f ca="1">VLOOKUP(K42,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
@@ -8609,7 +8930,7 @@
     <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,2)</f>
@@ -8625,11 +8946,11 @@
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <f ca="1">VLOOKUP(K43,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
@@ -8643,41 +8964,41 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <f ca="1">VLOOKUP(K44,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" t="str">
         <f ca="1">VLOOKUP(M44,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,2)</f>
@@ -8693,11 +9014,11 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <f ca="1">VLOOKUP(K45,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
@@ -8711,7 +9032,7 @@
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,2)</f>
@@ -8719,53 +9040,53 @@
       </c>
       <c r="I46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L46">
         <f ca="1">VLOOKUP(K46,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" t="str">
         <f ca="1">VLOOKUP(M46,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H47" t="str">
         <f ca="1">VLOOKUP(G47,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I47" t="str">
         <f ca="1">VLOOKUP(G47,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J47" t="str">
         <f ca="1">VLOOKUP(G47,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <f ca="1">VLOOKUP(K47,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
@@ -8795,11 +9116,11 @@
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <f ca="1">VLOOKUP(K48,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
@@ -8813,7 +9134,7 @@
     <row r="49" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,2)</f>
@@ -8821,27 +9142,27 @@
       </c>
       <c r="I49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <f ca="1">VLOOKUP(K49,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N49" t="str">
         <f ca="1">VLOOKUP(M49,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="50" spans="7:14" x14ac:dyDescent="0.45">
@@ -8863,25 +9184,25 @@
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L50">
         <f ca="1">VLOOKUP(K50,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N50" t="str">
         <f ca="1">VLOOKUP(M50,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="51" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,2)</f>
@@ -8889,27 +9210,27 @@
       </c>
       <c r="I51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <f ca="1">VLOOKUP(K51,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51" t="str">
         <f ca="1">VLOOKUP(M51,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="52" spans="7:14" x14ac:dyDescent="0.45">
@@ -8931,19 +9252,19 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <f ca="1">VLOOKUP(K52,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" t="str">
         <f ca="1">VLOOKUP(M52,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="53" spans="7:14" x14ac:dyDescent="0.45">
@@ -8965,25 +9286,25 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L53">
         <f ca="1">VLOOKUP(K53,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="str">
         <f ca="1">VLOOKUP(M53,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="54" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,2)</f>
@@ -8999,67 +9320,67 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <f ca="1">VLOOKUP(K54,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="str">
         <f ca="1">VLOOKUP(M54,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="55" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Spark</v>
       </c>
       <c r="J55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <f ca="1">VLOOKUP(K55,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="str">
         <f ca="1">VLOOKUP(M55,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="56" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,4)</f>
@@ -9067,25 +9388,25 @@
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <f ca="1">VLOOKUP(K56,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N56" t="str">
         <f ca="1">VLOOKUP(M56,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="57" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,2)</f>
@@ -9101,11 +9422,11 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <f ca="1">VLOOKUP(K57,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
@@ -9119,19 +9440,19 @@
     <row r="58" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Spark</v>
       </c>
       <c r="J58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
@@ -9143,17 +9464,17 @@
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N58" t="str">
         <f ca="1">VLOOKUP(M58,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="59" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,2)</f>
@@ -9169,71 +9490,71 @@
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L59">
         <f ca="1">VLOOKUP(K59,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N59" t="str">
         <f ca="1">VLOOKUP(M59,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="60" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Silverado</v>
       </c>
       <c r="J60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60">
         <f ca="1">VLOOKUP(K60,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N60" t="str">
         <f ca="1">VLOOKUP(M60,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="61" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="4"/>
@@ -9255,27 +9576,27 @@
     <row r="62" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <f ca="1">VLOOKUP(K62,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
@@ -9289,15 +9610,15 @@
     <row r="63" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,4)</f>
@@ -9305,11 +9626,11 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <f ca="1">VLOOKUP(K63,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
@@ -9323,7 +9644,7 @@
     <row r="64" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,2)</f>
@@ -9331,19 +9652,19 @@
       </c>
       <c r="I64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Dart</v>
       </c>
       <c r="J64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L64">
         <f ca="1">VLOOKUP(K64,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="5"/>
@@ -9357,15 +9678,15 @@
     <row r="65" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G65">
         <f t="shared" ref="G65:G96" ca="1" si="6">RANDBETWEEN(1,20)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Durango</v>
       </c>
       <c r="J65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,4)</f>
@@ -9373,33 +9694,33 @@
       </c>
       <c r="K65">
         <f t="shared" ref="K65:K96" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <f ca="1">VLOOKUP(K65,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M96" ca="1" si="8">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N65" t="str">
         <f ca="1">VLOOKUP(M65,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="66" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G66">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,4)</f>
@@ -9407,11 +9728,11 @@
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <f ca="1">VLOOKUP(K66,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="8"/>
@@ -9425,35 +9746,35 @@
     <row r="67" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G67">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Silverado</v>
       </c>
       <c r="J67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <f ca="1">VLOOKUP(K67,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N67" t="str">
         <f ca="1">VLOOKUP(M67,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="68" spans="7:14" x14ac:dyDescent="0.45">
@@ -9475,25 +9796,25 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68">
         <f ca="1">VLOOKUP(K68,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68" t="str">
         <f ca="1">VLOOKUP(M68,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="69" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G69">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H69" t="str">
         <f ca="1">VLOOKUP(G69,Sheet1!$A$2:$D$12,2)</f>
@@ -9517,59 +9838,59 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" t="str">
         <f ca="1">VLOOKUP(M69,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="70" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <f ca="1">VLOOKUP(K70,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70" t="str">
         <f ca="1">VLOOKUP(M70,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="71" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G71">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H71" t="str">
         <f ca="1">VLOOKUP(G71,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I71" t="str">
         <f ca="1">VLOOKUP(G71,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J71" t="str">
         <f ca="1">VLOOKUP(G71,Sheet1!$A$2:$D$12,4)</f>
@@ -9577,53 +9898,53 @@
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71">
         <f ca="1">VLOOKUP(K71,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N71" t="str">
         <f ca="1">VLOOKUP(M71,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="72" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G72">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72">
         <f ca="1">VLOOKUP(K72,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72" t="str">
         <f ca="1">VLOOKUP(M72,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="73" spans="7:14" x14ac:dyDescent="0.45">
@@ -9645,25 +9966,25 @@
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73">
         <f ca="1">VLOOKUP(K73,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N73" t="str">
         <f ca="1">VLOOKUP(M73,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="74" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G74">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,2)</f>
@@ -9671,11 +9992,11 @@
       </c>
       <c r="I74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Tahoe</v>
       </c>
       <c r="J74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="7"/>
@@ -9687,17 +10008,17 @@
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N74" t="str">
         <f ca="1">VLOOKUP(M74,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="75" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G75">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H75" t="str">
         <f ca="1">VLOOKUP(G75,Sheet1!$A$2:$D$12,2)</f>
@@ -9713,25 +10034,25 @@
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <f ca="1">VLOOKUP(K75,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75" t="str">
         <f ca="1">VLOOKUP(M75,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="76" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G76">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H76" t="str">
         <f ca="1">VLOOKUP(G76,Sheet1!$A$2:$D$12,2)</f>
@@ -9747,25 +10068,25 @@
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L76">
         <f ca="1">VLOOKUP(K76,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N76" t="str">
         <f ca="1">VLOOKUP(M76,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="77" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,2)</f>
@@ -9773,11 +10094,11 @@
       </c>
       <c r="I77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Dart</v>
       </c>
       <c r="J77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="7"/>
@@ -9799,7 +10120,7 @@
     <row r="78" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G78">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H78" t="str">
         <f ca="1">VLOOKUP(G78,Sheet1!$A$2:$D$12,2)</f>
@@ -9815,33 +10136,33 @@
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <f ca="1">VLOOKUP(K78,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N78" t="str">
         <f ca="1">VLOOKUP(M78,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="79" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H79" t="str">
         <f ca="1">VLOOKUP(G79,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I79" t="str">
         <f ca="1">VLOOKUP(G79,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J79" t="str">
         <f ca="1">VLOOKUP(G79,Sheet1!$A$2:$D$12,4)</f>
@@ -9849,45 +10170,45 @@
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <f ca="1">VLOOKUP(K79,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79" t="str">
         <f ca="1">VLOOKUP(M79,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="80" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H80" t="str">
         <f ca="1">VLOOKUP(G80,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I80" t="str">
         <f ca="1">VLOOKUP(G80,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J80" t="str">
         <f ca="1">VLOOKUP(G80,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80">
         <f ca="1">VLOOKUP(K80,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="8"/>
@@ -9901,41 +10222,41 @@
     <row r="81" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Mustang</v>
       </c>
       <c r="J81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Coupe</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <f ca="1">VLOOKUP(K81,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N81" t="str">
         <f ca="1">VLOOKUP(M81,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="82" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,2)</f>
@@ -9943,11 +10264,11 @@
       </c>
       <c r="I82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="7"/>
@@ -9959,59 +10280,59 @@
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N82" t="str">
         <f ca="1">VLOOKUP(M82,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="83" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <f ca="1">VLOOKUP(K83,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83" t="str">
         <f ca="1">VLOOKUP(M83,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="84" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,4)</f>
@@ -10019,33 +10340,33 @@
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <f ca="1">VLOOKUP(K84,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84" t="str">
         <f ca="1">VLOOKUP(M84,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="85" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,4)</f>
@@ -10061,59 +10382,59 @@
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N85" t="str">
         <f ca="1">VLOOKUP(M85,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="86" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Explorer</v>
       </c>
       <c r="J86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>SUV</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86">
         <f ca="1">VLOOKUP(K86,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N86" t="str">
         <f ca="1">VLOOKUP(M86,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="87" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G87">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H87" t="str">
         <f ca="1">VLOOKUP(G87,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I87" t="str">
         <f ca="1">VLOOKUP(G87,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J87" t="str">
         <f ca="1">VLOOKUP(G87,Sheet1!$A$2:$D$12,4)</f>
@@ -10121,33 +10442,33 @@
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L87">
         <f ca="1">VLOOKUP(K87,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N87" t="str">
         <f ca="1">VLOOKUP(M87,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="88" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G88">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H88" t="str">
         <f ca="1">VLOOKUP(G88,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I88" t="str">
         <f ca="1">VLOOKUP(G88,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J88" t="str">
         <f ca="1">VLOOKUP(G88,Sheet1!$A$2:$D$12,4)</f>
@@ -10163,29 +10484,29 @@
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N88" t="str">
         <f ca="1">VLOOKUP(M88,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="89" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="7"/>
@@ -10197,17 +10518,17 @@
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N89" t="str">
         <f ca="1">VLOOKUP(M89,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="90" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" t="str">
         <f ca="1">VLOOKUP(G90,Sheet1!$A$2:$D$12,2)</f>
@@ -10223,11 +10544,11 @@
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <f ca="1">VLOOKUP(K90,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="8"/>
@@ -10241,27 +10562,27 @@
     <row r="91" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H91" t="str">
         <f ca="1">VLOOKUP(G91,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I91" t="str">
         <f ca="1">VLOOKUP(G91,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J91" t="str">
         <f ca="1">VLOOKUP(G91,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L91">
         <f ca="1">VLOOKUP(K91,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="8"/>
@@ -10275,61 +10596,61 @@
     <row r="92" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <f ca="1">VLOOKUP(K92,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N92" t="str">
         <f ca="1">VLOOKUP(M92,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="93" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <f ca="1">VLOOKUP(K93,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="8"/>
@@ -10343,75 +10664,75 @@
     <row r="94" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Silverado</v>
       </c>
       <c r="J94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94">
         <f ca="1">VLOOKUP(K94,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N94" t="str">
         <f ca="1">VLOOKUP(M94,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="95" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H95" t="str">
         <f ca="1">VLOOKUP(G95,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I95" t="str">
         <f ca="1">VLOOKUP(G95,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J95" t="str">
         <f ca="1">VLOOKUP(G95,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L95">
         <f ca="1">VLOOKUP(K95,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N95" t="str">
         <f ca="1">VLOOKUP(M95,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="96" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,2)</f>
@@ -10419,19 +10740,19 @@
       </c>
       <c r="I96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Explorer</v>
       </c>
       <c r="J96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>SUV</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <f ca="1">VLOOKUP(K96,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="8"/>
@@ -10445,7 +10766,7 @@
     <row r="97" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G97">
         <f t="shared" ref="G97:G120" ca="1" si="9">RANDBETWEEN(1,20)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H97" t="str">
         <f ca="1">VLOOKUP(G97,Sheet1!$A$2:$D$12,2)</f>
@@ -10461,59 +10782,59 @@
       </c>
       <c r="K97">
         <f t="shared" ref="K97:K120" ca="1" si="10">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L97">
         <f ca="1">VLOOKUP(K97,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M120" ca="1" si="11">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N97" t="str">
         <f ca="1">VLOOKUP(M97,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="98" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G98">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H98" t="str">
         <f ca="1">VLOOKUP(G98,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I98" t="str">
         <f ca="1">VLOOKUP(G98,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J98" t="str">
         <f ca="1">VLOOKUP(G98,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <f ca="1">VLOOKUP(K98,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98" t="str">
         <f ca="1">VLOOKUP(M98,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="99" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G99">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H99" t="str">
         <f ca="1">VLOOKUP(G99,Sheet1!$A$2:$D$12,2)</f>
@@ -10529,25 +10850,25 @@
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L99">
         <f ca="1">VLOOKUP(K99,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N99" t="str">
         <f ca="1">VLOOKUP(M99,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="100" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,2)</f>
@@ -10555,67 +10876,67 @@
       </c>
       <c r="I100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Mustang</v>
       </c>
       <c r="J100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Coupe</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <f ca="1">VLOOKUP(K100,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N100" t="str">
         <f ca="1">VLOOKUP(M100,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="101" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G101">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Explorer</v>
       </c>
       <c r="J101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>SUV</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L101">
         <f ca="1">VLOOKUP(K101,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N101" t="str">
         <f ca="1">VLOOKUP(M101,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="102" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G102">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,2)</f>
@@ -10639,17 +10960,17 @@
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N102" t="str">
         <f ca="1">VLOOKUP(M102,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="103" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G103">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H103" t="str">
         <f ca="1">VLOOKUP(G103,Sheet1!$A$2:$D$12,2)</f>
@@ -10683,15 +11004,15 @@
     <row r="104" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G104">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,4)</f>
@@ -10699,33 +11020,33 @@
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L104">
         <f ca="1">VLOOKUP(K104,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N104" t="str">
         <f ca="1">VLOOKUP(M104,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="105" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G105">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,4)</f>
@@ -10741,29 +11062,29 @@
       </c>
       <c r="M105">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N105" t="str">
         <f ca="1">VLOOKUP(M105,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="106" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G106">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="10"/>
@@ -10785,7 +11106,7 @@
     <row r="107" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G107">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,2)</f>
@@ -10801,59 +11122,59 @@
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L107">
         <f ca="1">VLOOKUP(K107,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N107" t="str">
         <f ca="1">VLOOKUP(M107,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="108" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G108">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108">
         <f ca="1">VLOOKUP(K108,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N108" t="str">
         <f ca="1">VLOOKUP(M108,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="109" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G109">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,2)</f>
@@ -10861,41 +11182,41 @@
       </c>
       <c r="I109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L109">
         <f ca="1">VLOOKUP(K109,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N109" t="str">
         <f ca="1">VLOOKUP(M109,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="110" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G110">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H110" t="str">
         <f ca="1">VLOOKUP(G110,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I110" t="str">
         <f ca="1">VLOOKUP(G110,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J110" t="str">
         <f ca="1">VLOOKUP(G110,Sheet1!$A$2:$D$12,4)</f>
@@ -10903,25 +11224,25 @@
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110">
         <f ca="1">VLOOKUP(K110,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N110" t="str">
         <f ca="1">VLOOKUP(M110,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="111" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G111">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,2)</f>
@@ -10937,11 +11258,11 @@
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <f ca="1">VLOOKUP(K111,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="11"/>
@@ -10955,7 +11276,7 @@
     <row r="112" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G112">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H112" t="str">
         <f ca="1">VLOOKUP(G112,Sheet1!$A$2:$D$12,2)</f>
@@ -10971,59 +11292,59 @@
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <f ca="1">VLOOKUP(K112,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N112" t="str">
         <f ca="1">VLOOKUP(M112,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="113" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G113">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Mustang</v>
       </c>
       <c r="J113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L113">
         <f ca="1">VLOOKUP(K113,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N113" t="str">
         <f ca="1">VLOOKUP(M113,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="114" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G114">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H114" t="str">
         <f ca="1">VLOOKUP(G114,Sheet1!$A$2:$D$12,2)</f>
@@ -11039,25 +11360,25 @@
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <f ca="1">VLOOKUP(K114,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M114">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N114" t="str">
         <f ca="1">VLOOKUP(M114,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="115" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G115">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H115" t="str">
         <f ca="1">VLOOKUP(G115,Sheet1!$A$2:$D$12,2)</f>
@@ -11073,59 +11394,59 @@
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115">
         <f ca="1">VLOOKUP(K115,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M115">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N115" t="str">
         <f ca="1">VLOOKUP(M115,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="116" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G116">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <f ca="1">VLOOKUP(K116,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N116" t="str">
         <f ca="1">VLOOKUP(M116,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="117" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G117">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" t="str">
         <f ca="1">VLOOKUP(G117,Sheet1!$A$2:$D$12,2)</f>
@@ -11149,79 +11470,79 @@
       </c>
       <c r="M117">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N117" t="str">
         <f ca="1">VLOOKUP(M117,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="118" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G118">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Durango</v>
       </c>
       <c r="J118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>SUV</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118">
         <f ca="1">VLOOKUP(K118,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M118">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N118" t="str">
         <f ca="1">VLOOKUP(M118,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="119" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G119">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Mustang</v>
       </c>
       <c r="J119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Coupe</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <f ca="1">VLOOKUP(K119,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M119">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N119" t="str">
         <f ca="1">VLOOKUP(M119,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="120" spans="7:14" x14ac:dyDescent="0.45">
@@ -11243,19 +11564,19 @@
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L120">
         <f ca="1">VLOOKUP(K120,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N120" t="str">
         <f ca="1">VLOOKUP(M120,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
   </sheetData>

--- a/updatedTables.xlsx
+++ b/updatedTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2a9e0f2cdcd083c/Documents/UCM/Fall22/CSE111/Final_Project/CSE111_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D407B103-E72A-41B4-A238-2C77B4AC983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{721F49A3-D694-475A-9B0A-91CE02FD1494}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{D407B103-E72A-41B4-A238-2C77B4AC983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0004DA6D-C6E6-44F6-BAE1-44D5A003C1CC}"/>
   <bookViews>
-    <workbookView xWindow="27250" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{04355D55-975A-46DE-A4FD-034198C20623}"/>
+    <workbookView minimized="1" xWindow="30490" yWindow="1670" windowWidth="15390" windowHeight="9530" activeTab="4" xr2:uid="{04355D55-975A-46DE-A4FD-034198C20623}"/>
   </bookViews>
   <sheets>
     <sheet name="Automobile" sheetId="6" r:id="rId1"/>
@@ -701,6 +701,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4300,7 +4304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC131B9-323C-44FF-8B20-57CA2111FAA9}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5504,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B93CC-4546-474A-9695-878A5CFF839C}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5530,7 +5536,6 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
-        <f>A2+1</f>
         <v>3101</v>
       </c>
       <c r="B3">
@@ -5539,8 +5544,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5548,17 +5552,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5566,35 +5568,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5602,35 +5600,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5638,44 +5632,39 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>3113</v>
+        <v>3118</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>3114</v>
+        <v>3119</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>3115</v>
+        <v>3121</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>3117</v>
+        <v>3123</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5683,134 +5672,119 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>3118</v>
+        <v>3124</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>3119</v>
+        <v>3125</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>3126</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>3121</v>
+        <v>3127</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>3122</v>
+        <v>3128</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>3123</v>
+        <v>3129</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>3124</v>
+        <v>3130</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>3131</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>3126</v>
+        <v>3132</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>3127</v>
+        <v>3134</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>3128</v>
+        <v>3135</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>3129</v>
+        <v>3138</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>3130</v>
+        <v>3139</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>3131</v>
+        <v>3140</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>3132</v>
+        <v>3141</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5818,44 +5792,39 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>3133</v>
+        <v>3143</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>3134</v>
+        <v>3145</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>3135</v>
+        <v>3146</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>3136</v>
+        <v>3147</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>3137</v>
+        <v>3148</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -5863,8 +5832,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
-        <f t="shared" si="0"/>
-        <v>3138</v>
+        <v>3149</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -5872,17 +5840,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>3139</v>
+        <v>3150</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>3140</v>
+        <v>3153</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5890,35 +5856,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>3141</v>
+        <v>3155</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>3142</v>
+        <v>3156</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>3143</v>
+        <v>3158</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>3144</v>
+        <v>3159</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -5926,44 +5888,39 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
-        <f t="shared" si="0"/>
-        <v>3145</v>
+        <v>3160</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
-        <f t="shared" si="0"/>
-        <v>3146</v>
+        <v>3161</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
-        <f t="shared" si="0"/>
-        <v>3147</v>
+        <v>3162</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
-        <f t="shared" si="0"/>
-        <v>3148</v>
+        <v>3164</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
-        <f t="shared" si="0"/>
-        <v>3149</v>
+        <v>3165</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -5971,53 +5928,47 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
-        <f t="shared" si="0"/>
-        <v>3150</v>
+        <v>3166</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
-        <f t="shared" si="0"/>
-        <v>3151</v>
+        <v>3167</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
-        <f t="shared" si="0"/>
-        <v>3152</v>
+        <v>3168</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
-        <f t="shared" si="0"/>
-        <v>3153</v>
+        <v>3169</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
-        <f t="shared" si="0"/>
-        <v>3154</v>
+        <v>3170</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
-        <f t="shared" si="0"/>
-        <v>3155</v>
+        <v>3172</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -6025,62 +5976,55 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
-        <f t="shared" si="0"/>
-        <v>3156</v>
+        <v>3173</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
-        <f t="shared" si="0"/>
-        <v>3157</v>
+        <v>3175</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
-        <f t="shared" si="0"/>
-        <v>3158</v>
+        <v>3176</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
-        <f t="shared" si="0"/>
-        <v>3159</v>
+        <v>3177</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
-        <f t="shared" si="0"/>
-        <v>3160</v>
+        <v>3178</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
-        <f t="shared" si="0"/>
-        <v>3161</v>
+        <v>3179</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
-        <f t="shared" si="0"/>
-        <v>3162</v>
+        <v>3180</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -6088,89 +6032,79 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
-        <f t="shared" si="0"/>
-        <v>3163</v>
+        <v>3181</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
-        <f t="shared" si="0"/>
-        <v>3164</v>
+        <v>3182</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
-        <f t="shared" si="0"/>
-        <v>3165</v>
+        <v>3183</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
-        <f t="shared" ref="A68:A121" si="1">A67+1</f>
-        <v>3166</v>
+        <v>3185</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
-        <f t="shared" si="1"/>
-        <v>3167</v>
+        <v>3186</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
-        <f t="shared" si="1"/>
-        <v>3168</v>
+        <v>3187</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
-        <f t="shared" si="1"/>
-        <v>3169</v>
+        <v>3188</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
-        <f t="shared" si="1"/>
-        <v>3170</v>
+        <v>3190</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
-        <f t="shared" si="1"/>
-        <v>3171</v>
+        <v>3192</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>3172</v>
+        <v>3193</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -6178,62 +6112,55 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>3173</v>
+        <v>3194</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>3174</v>
+        <v>3195</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>3175</v>
+        <v>3196</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>3176</v>
+        <v>3198</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
-        <f t="shared" si="1"/>
-        <v>3177</v>
+        <v>3199</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
-        <f t="shared" si="1"/>
-        <v>3178</v>
+        <v>3200</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
-        <f t="shared" si="1"/>
-        <v>3179</v>
+        <v>3201</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -6241,17 +6168,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
-        <f t="shared" si="1"/>
-        <v>3180</v>
+        <v>3202</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
-        <f t="shared" si="1"/>
-        <v>3181</v>
+        <v>3204</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -6259,53 +6184,47 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
-        <f t="shared" si="1"/>
-        <v>3182</v>
+        <v>3206</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
-        <f t="shared" si="1"/>
-        <v>3183</v>
+        <v>3207</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
-        <f t="shared" si="1"/>
-        <v>3184</v>
+        <v>3208</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
-        <f t="shared" si="1"/>
-        <v>3185</v>
+        <v>3209</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
-        <f t="shared" si="1"/>
-        <v>3186</v>
+        <v>3210</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
-        <f t="shared" si="1"/>
-        <v>3187</v>
+        <v>3211</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -6313,53 +6232,47 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
-        <f t="shared" si="1"/>
-        <v>3188</v>
+        <v>3212</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
-        <f t="shared" si="1"/>
-        <v>3189</v>
+        <v>3213</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
-        <f t="shared" si="1"/>
-        <v>3190</v>
+        <v>3214</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
-        <f t="shared" si="1"/>
-        <v>3191</v>
+        <v>3215</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
-        <f t="shared" si="1"/>
-        <v>3192</v>
+        <v>3216</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
-        <f t="shared" si="1"/>
-        <v>3193</v>
+        <v>3217</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -6367,236 +6280,10 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
-        <f t="shared" si="1"/>
-        <v>3194</v>
+        <v>3218</v>
       </c>
       <c r="B96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>3195</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>3196</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>3197</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>3198</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>3199</v>
-      </c>
-      <c r="B101">
         <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>3200</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>3201</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <f t="shared" si="1"/>
-        <v>3202</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>3203</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <f t="shared" si="1"/>
-        <v>3204</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <f t="shared" si="1"/>
-        <v>3205</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <f t="shared" si="1"/>
-        <v>3206</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <f t="shared" si="1"/>
-        <v>3207</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <f t="shared" si="1"/>
-        <v>3208</v>
-      </c>
-      <c r="B110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111">
-        <f t="shared" si="1"/>
-        <v>3209</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>3210</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>3211</v>
-      </c>
-      <c r="B113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>3212</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>3213</v>
-      </c>
-      <c r="B115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>3214</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>3215</v>
-      </c>
-      <c r="B117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>3216</v>
-      </c>
-      <c r="B118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>3217</v>
-      </c>
-      <c r="B119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>3218</v>
-      </c>
-      <c r="B120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <f t="shared" si="1"/>
-        <v>3219</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7190,19 +6877,19 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G32" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K1">
         <f t="shared" ref="K1:K32" ca="1" si="1">RANDBETWEEN(1,4)</f>
@@ -7236,15 +6923,15 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,4)</f>
@@ -7252,19 +6939,19 @@
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <f ca="1">VLOOKUP(K2,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">VLOOKUP(M2,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -7282,15 +6969,15 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Tahoe</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,4)</f>
@@ -7298,19 +6985,19 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f ca="1">VLOOKUP(K3,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="str">
         <f ca="1">VLOOKUP(M3,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -7328,7 +7015,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,2)</f>
@@ -7336,27 +7023,27 @@
       </c>
       <c r="I4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Dart</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <f ca="1">VLOOKUP(K4,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="str">
         <f ca="1">VLOOKUP(M4,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -7374,35 +7061,35 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <f ca="1">VLOOKUP(K5,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">VLOOKUP(M5,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -7420,27 +7107,27 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <f ca="1">VLOOKUP(K6,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="2"/>
@@ -7466,15 +7153,15 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="str">
         <f ca="1">VLOOKUP(G7,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I7" t="str">
         <f ca="1">VLOOKUP(G7,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>F-150</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">VLOOKUP(G7,Sheet1!$A$2:$D$12,4)</f>
@@ -7490,11 +7177,11 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="str">
         <f ca="1">VLOOKUP(M7,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -7512,35 +7199,35 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <f ca="1">VLOOKUP(K8,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="str">
         <f ca="1">VLOOKUP(M8,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -7558,35 +7245,35 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <f ca="1">VLOOKUP(K9,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="str">
         <f ca="1">VLOOKUP(M9,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -7604,15 +7291,15 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,4)</f>
@@ -7628,11 +7315,11 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="str">
         <f ca="1">VLOOKUP(M10,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -7650,7 +7337,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H11" t="str">
         <f ca="1">VLOOKUP(G11,Sheet1!$A$2:$D$12,2)</f>
@@ -7666,19 +7353,19 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f ca="1">VLOOKUP(K11,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="str">
         <f ca="1">VLOOKUP(M11,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -7696,19 +7383,19 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Silverado</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
@@ -7720,11 +7407,11 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="str">
         <f ca="1">VLOOKUP(M12,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -7742,15 +7429,15 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H13" t="str">
         <f ca="1">VLOOKUP(G13,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I13" t="str">
         <f ca="1">VLOOKUP(G13,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J13" t="str">
         <f ca="1">VLOOKUP(G13,Sheet1!$A$2:$D$12,4)</f>
@@ -7766,11 +7453,11 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="str">
         <f ca="1">VLOOKUP(M13,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -7788,7 +7475,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,2)</f>
@@ -7796,11 +7483,11 @@
       </c>
       <c r="I14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Focus</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
@@ -7812,11 +7499,11 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="str">
         <f ca="1">VLOOKUP(M14,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -7834,15 +7521,15 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,4)</f>
@@ -7850,19 +7537,19 @@
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <f ca="1">VLOOKUP(K15,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="str">
         <f ca="1">VLOOKUP(M15,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -7880,15 +7567,15 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Spark</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,4)</f>
@@ -7896,11 +7583,11 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <f ca="1">VLOOKUP(K16,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
@@ -7926,7 +7613,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" t="str">
         <f ca="1">VLOOKUP(G17,Sheet1!$A$2:$D$12,2)</f>
@@ -7942,11 +7629,11 @@
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <f ca="1">VLOOKUP(K17,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="2"/>
@@ -7972,7 +7659,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,2)</f>
@@ -7996,11 +7683,11 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="str">
         <f ca="1">VLOOKUP(M18,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -8018,7 +7705,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,2)</f>
@@ -8034,11 +7721,11 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <f ca="1">VLOOKUP(K19,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
@@ -8064,27 +7751,27 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <f ca="1">VLOOKUP(K20,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
@@ -8110,15 +7797,15 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Durango</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,4)</f>
@@ -8126,37 +7813,37 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <f ca="1">VLOOKUP(K21,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="str">
         <f ca="1">VLOOKUP(M21,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H22" t="str">
         <f ca="1">VLOOKUP(G22,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I22" t="str">
         <f ca="1">VLOOKUP(G22,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">VLOOKUP(G22,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
@@ -8168,45 +7855,45 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="str">
         <f ca="1">VLOOKUP(M22,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Challenger</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Coupe</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <f ca="1">VLOOKUP(K23,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="str">
         <f ca="1">VLOOKUP(M23,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
@@ -8218,19 +7905,19 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H24" t="str">
         <f ca="1">VLOOKUP(G24,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I24" t="str">
         <f ca="1">VLOOKUP(G24,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J24" t="str">
         <f ca="1">VLOOKUP(G24,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
@@ -8261,35 +7948,35 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25">
         <f ca="1">VLOOKUP(K25,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="str">
         <f ca="1">VLOOKUP(M25,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
@@ -8304,35 +7991,35 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <f ca="1">VLOOKUP(K26,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="str">
         <f ca="1">VLOOKUP(M26,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
@@ -8347,15 +8034,15 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,4)</f>
@@ -8390,19 +8077,19 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
@@ -8414,37 +8101,37 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="str">
         <f ca="1">VLOOKUP(M28,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <f ca="1">VLOOKUP(K29,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="2"/>
@@ -8464,35 +8151,35 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <f ca="1">VLOOKUP(K30,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="str">
         <f ca="1">VLOOKUP(M30,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
@@ -8504,35 +8191,35 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <f ca="1">VLOOKUP(K31,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="str">
         <f ca="1">VLOOKUP(M31,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
@@ -8544,15 +8231,15 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,4)</f>
@@ -8560,19 +8247,19 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <f ca="1">VLOOKUP(K32,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="str">
         <f ca="1">VLOOKUP(M32,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
@@ -8584,7 +8271,7 @@
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G64" ca="1" si="3">RANDBETWEEN(1,20)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,2)</f>
@@ -8608,11 +8295,11 @@
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M64" ca="1" si="5">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="str">
         <f ca="1">VLOOKUP(M33,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
@@ -8624,19 +8311,19 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Silverado</v>
       </c>
       <c r="J34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="4"/>
@@ -8648,37 +8335,37 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="str">
         <f ca="1">VLOOKUP(M34,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Challenger</v>
       </c>
       <c r="J35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <f ca="1">VLOOKUP(K35,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
@@ -8692,7 +8379,7 @@
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,2)</f>
@@ -8716,45 +8403,45 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="str">
         <f ca="1">VLOOKUP(M36,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <f ca="1">VLOOKUP(K37,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="str">
         <f ca="1">VLOOKUP(M37,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
@@ -8776,33 +8463,33 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <f ca="1">VLOOKUP(K38,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="str">
         <f ca="1">VLOOKUP(M38,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,4)</f>
@@ -8810,11 +8497,11 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L39">
         <f ca="1">VLOOKUP(K39,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
@@ -8828,41 +8515,41 @@
     <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <f ca="1">VLOOKUP(K40,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="str">
         <f ca="1">VLOOKUP(M40,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,2)</f>
@@ -8878,45 +8565,45 @@
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <f ca="1">VLOOKUP(K41,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="str">
         <f ca="1">VLOOKUP(M41,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H42" t="str">
         <f ca="1">VLOOKUP(G42,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I42" t="str">
         <f ca="1">VLOOKUP(G42,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J42" t="str">
         <f ca="1">VLOOKUP(G42,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <f ca="1">VLOOKUP(K42,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
@@ -8930,19 +8617,19 @@
     <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="4"/>
@@ -8954,37 +8641,37 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" t="str">
         <f ca="1">VLOOKUP(M43,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <f ca="1">VLOOKUP(K44,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
@@ -8998,7 +8685,7 @@
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,2)</f>
@@ -9006,11 +8693,11 @@
       </c>
       <c r="I45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="4"/>
@@ -9022,17 +8709,17 @@
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N45" t="str">
         <f ca="1">VLOOKUP(M45,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,2)</f>
@@ -9048,25 +8735,25 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <f ca="1">VLOOKUP(K46,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N46" t="str">
         <f ca="1">VLOOKUP(M46,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" t="str">
         <f ca="1">VLOOKUP(G47,Sheet1!$A$2:$D$12,2)</f>
@@ -9082,11 +8769,11 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47">
         <f ca="1">VLOOKUP(K47,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
@@ -9100,7 +8787,7 @@
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H48" t="str">
         <f ca="1">VLOOKUP(G48,Sheet1!$A$2:$D$12,2)</f>
@@ -9108,19 +8795,19 @@
       </c>
       <c r="I48" t="str">
         <f ca="1">VLOOKUP(G48,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J48" t="str">
         <f ca="1">VLOOKUP(G48,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <f ca="1">VLOOKUP(K48,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
@@ -9134,7 +8821,7 @@
     <row r="49" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,2)</f>
@@ -9142,33 +8829,33 @@
       </c>
       <c r="I49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <f ca="1">VLOOKUP(K49,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="str">
         <f ca="1">VLOOKUP(M49,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="50" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" t="str">
         <f ca="1">VLOOKUP(G50,Sheet1!$A$2:$D$12,2)</f>
@@ -9192,37 +8879,37 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="str">
         <f ca="1">VLOOKUP(M50,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="51" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Cruze</v>
       </c>
       <c r="J51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L51">
         <f ca="1">VLOOKUP(K51,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
@@ -9236,27 +8923,27 @@
     <row r="52" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H52" t="str">
         <f ca="1">VLOOKUP(G52,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I52" t="str">
         <f ca="1">VLOOKUP(G52,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J52" t="str">
         <f ca="1">VLOOKUP(G52,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L52">
         <f ca="1">VLOOKUP(K52,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
@@ -9270,7 +8957,7 @@
     <row r="53" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" t="str">
         <f ca="1">VLOOKUP(G53,Sheet1!$A$2:$D$12,2)</f>
@@ -9286,11 +8973,11 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L53">
         <f ca="1">VLOOKUP(K53,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
@@ -9304,15 +8991,15 @@
     <row r="54" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,4)</f>
@@ -9338,49 +9025,49 @@
     <row r="55" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Mustang</v>
       </c>
       <c r="J55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L55">
         <f ca="1">VLOOKUP(K55,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N55" t="str">
         <f ca="1">VLOOKUP(M55,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="56" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,4)</f>
@@ -9388,33 +9075,33 @@
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L56">
         <f ca="1">VLOOKUP(K56,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56" t="str">
         <f ca="1">VLOOKUP(M56,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="57" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,4)</f>
@@ -9422,113 +9109,113 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <f ca="1">VLOOKUP(K57,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57" t="str">
         <f ca="1">VLOOKUP(M57,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="58" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Mustang</v>
       </c>
       <c r="J58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L58">
         <f ca="1">VLOOKUP(K58,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N58" t="str">
         <f ca="1">VLOOKUP(M58,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="59" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <f ca="1">VLOOKUP(K59,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59" t="str">
         <f ca="1">VLOOKUP(M59,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="60" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <f ca="1">VLOOKUP(K60,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
@@ -9542,19 +9229,19 @@
     <row r="61" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="4"/>
@@ -9566,29 +9253,29 @@
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" t="str">
         <f ca="1">VLOOKUP(M61,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="62" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Silverado</v>
       </c>
       <c r="J62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Pick-up</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="4"/>
@@ -9600,37 +9287,37 @@
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N62" t="str">
         <f ca="1">VLOOKUP(M62,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="63" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <f ca="1">VLOOKUP(K63,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
@@ -9644,27 +9331,27 @@
     <row r="64" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <f ca="1">VLOOKUP(K64,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="5"/>
@@ -9678,7 +9365,7 @@
     <row r="65" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G65">
         <f t="shared" ref="G65:G96" ca="1" si="6">RANDBETWEEN(1,20)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,2)</f>
@@ -9686,33 +9373,33 @@
       </c>
       <c r="I65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Dart</v>
       </c>
       <c r="J65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K65">
         <f t="shared" ref="K65:K96" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <f ca="1">VLOOKUP(K65,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M96" ca="1" si="8">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65" t="str">
         <f ca="1">VLOOKUP(M65,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="66" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G66">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,2)</f>
@@ -9720,11 +9407,11 @@
       </c>
       <c r="I66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Mustang</v>
       </c>
       <c r="J66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="7"/>
@@ -9736,29 +9423,29 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="str">
         <f ca="1">VLOOKUP(M66,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="67" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G67">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="7"/>
@@ -9780,7 +9467,7 @@
     <row r="68" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G68">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H68" t="str">
         <f ca="1">VLOOKUP(G68,Sheet1!$A$2:$D$12,2)</f>
@@ -9796,25 +9483,25 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <f ca="1">VLOOKUP(K68,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N68" t="str">
         <f ca="1">VLOOKUP(M68,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="69" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G69">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H69" t="str">
         <f ca="1">VLOOKUP(G69,Sheet1!$A$2:$D$12,2)</f>
@@ -9830,37 +9517,37 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <f ca="1">VLOOKUP(K69,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N69" t="str">
         <f ca="1">VLOOKUP(M69,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="70" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="7"/>
@@ -9872,17 +9559,17 @@
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N70" t="str">
         <f ca="1">VLOOKUP(M70,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="71" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G71">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H71" t="str">
         <f ca="1">VLOOKUP(G71,Sheet1!$A$2:$D$12,2)</f>
@@ -9898,25 +9585,25 @@
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L71">
         <f ca="1">VLOOKUP(K71,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71" t="str">
         <f ca="1">VLOOKUP(M71,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="72" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G72">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,2)</f>
@@ -9940,29 +9627,29 @@
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72" t="str">
         <f ca="1">VLOOKUP(M72,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="73" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G73">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H73" t="str">
         <f ca="1">VLOOKUP(G73,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I73" t="str">
         <f ca="1">VLOOKUP(G73,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J73" t="str">
         <f ca="1">VLOOKUP(G73,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="7"/>
@@ -9974,25 +9661,25 @@
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N73" t="str">
         <f ca="1">VLOOKUP(M73,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="74" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G74">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Explorer</v>
       </c>
       <c r="J74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,4)</f>
@@ -10000,25 +9687,25 @@
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L74">
         <f ca="1">VLOOKUP(K74,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N74" t="str">
         <f ca="1">VLOOKUP(M74,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="75" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G75">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H75" t="str">
         <f ca="1">VLOOKUP(G75,Sheet1!$A$2:$D$12,2)</f>
@@ -10034,19 +9721,19 @@
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <f ca="1">VLOOKUP(K75,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N75" t="str">
         <f ca="1">VLOOKUP(M75,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="76" spans="7:14" x14ac:dyDescent="0.45">
@@ -10068,59 +9755,59 @@
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L76">
         <f ca="1">VLOOKUP(K76,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N76" t="str">
         <f ca="1">VLOOKUP(M76,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="77" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L77">
         <f ca="1">VLOOKUP(K77,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N77" t="str">
         <f ca="1">VLOOKUP(M77,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="78" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G78">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H78" t="str">
         <f ca="1">VLOOKUP(G78,Sheet1!$A$2:$D$12,2)</f>
@@ -10136,25 +9823,25 @@
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <f ca="1">VLOOKUP(K78,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N78" t="str">
         <f ca="1">VLOOKUP(M78,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="79" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" t="str">
         <f ca="1">VLOOKUP(G79,Sheet1!$A$2:$D$12,2)</f>
@@ -10170,11 +9857,11 @@
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <f ca="1">VLOOKUP(K79,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="8"/>
@@ -10188,7 +9875,7 @@
     <row r="80" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H80" t="str">
         <f ca="1">VLOOKUP(G80,Sheet1!$A$2:$D$12,2)</f>
@@ -10212,51 +9899,51 @@
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N80" t="str">
         <f ca="1">VLOOKUP(M80,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="81" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <f ca="1">VLOOKUP(K81,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N81" t="str">
         <f ca="1">VLOOKUP(M81,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="82" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,2)</f>
@@ -10264,45 +9951,45 @@
       </c>
       <c r="I82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <f ca="1">VLOOKUP(K82,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N82" t="str">
         <f ca="1">VLOOKUP(M82,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="83" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="7"/>
@@ -10314,29 +10001,29 @@
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N83" t="str">
         <f ca="1">VLOOKUP(M83,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="84" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="7"/>
@@ -10348,97 +10035,97 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N84" t="str">
         <f ca="1">VLOOKUP(M84,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="85" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Explorer</v>
       </c>
       <c r="J85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L85">
         <f ca="1">VLOOKUP(K85,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" t="str">
         <f ca="1">VLOOKUP(M85,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="86" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L86">
         <f ca="1">VLOOKUP(K86,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N86" t="str">
         <f ca="1">VLOOKUP(M86,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="87" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G87">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H87" t="str">
         <f ca="1">VLOOKUP(G87,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I87" t="str">
         <f ca="1">VLOOKUP(G87,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J87" t="str">
         <f ca="1">VLOOKUP(G87,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="7"/>
@@ -10450,17 +10137,17 @@
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87" t="str">
         <f ca="1">VLOOKUP(M87,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="88" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G88">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H88" t="str">
         <f ca="1">VLOOKUP(G88,Sheet1!$A$2:$D$12,2)</f>
@@ -10484,29 +10171,29 @@
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N88" t="str">
         <f ca="1">VLOOKUP(M88,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="89" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="7"/>
@@ -10518,17 +10205,17 @@
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N89" t="str">
         <f ca="1">VLOOKUP(M89,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="90" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H90" t="str">
         <f ca="1">VLOOKUP(G90,Sheet1!$A$2:$D$12,2)</f>
@@ -10544,11 +10231,11 @@
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90">
         <f ca="1">VLOOKUP(K90,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="8"/>
@@ -10562,7 +10249,7 @@
     <row r="91" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H91" t="str">
         <f ca="1">VLOOKUP(G91,Sheet1!$A$2:$D$12,2)</f>
@@ -10578,25 +10265,25 @@
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <f ca="1">VLOOKUP(K91,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N91" t="str">
         <f ca="1">VLOOKUP(M91,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="92" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,2)</f>
@@ -10604,53 +10291,53 @@
       </c>
       <c r="I92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92">
         <f ca="1">VLOOKUP(K92,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N92" t="str">
         <f ca="1">VLOOKUP(M92,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="93" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Cruze</v>
       </c>
       <c r="J93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <f ca="1">VLOOKUP(K93,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="8"/>
@@ -10664,41 +10351,41 @@
     <row r="94" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L94">
         <f ca="1">VLOOKUP(K94,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N94" t="str">
         <f ca="1">VLOOKUP(M94,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="95" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H95" t="str">
         <f ca="1">VLOOKUP(G95,Sheet1!$A$2:$D$12,2)</f>
@@ -10714,11 +10401,11 @@
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L95">
         <f ca="1">VLOOKUP(K95,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="8"/>
@@ -10732,7 +10419,7 @@
     <row r="96" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,2)</f>
@@ -10740,33 +10427,33 @@
       </c>
       <c r="I96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>F-150</v>
       </c>
       <c r="J96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Pick-up</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <f ca="1">VLOOKUP(K96,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N96" t="str">
         <f ca="1">VLOOKUP(M96,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="97" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G97">
         <f t="shared" ref="G97:G120" ca="1" si="9">RANDBETWEEN(1,20)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H97" t="str">
         <f ca="1">VLOOKUP(G97,Sheet1!$A$2:$D$12,2)</f>
@@ -10782,11 +10469,11 @@
       </c>
       <c r="K97">
         <f t="shared" ref="K97:K120" ca="1" si="10">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L97">
         <f ca="1">VLOOKUP(K97,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M120" ca="1" si="11">RANDBETWEEN(1,5)</f>
@@ -10800,7 +10487,7 @@
     <row r="98" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G98">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H98" t="str">
         <f ca="1">VLOOKUP(G98,Sheet1!$A$2:$D$12,2)</f>
@@ -10816,25 +10503,25 @@
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98">
         <f ca="1">VLOOKUP(K98,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N98" t="str">
         <f ca="1">VLOOKUP(M98,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="99" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G99">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H99" t="str">
         <f ca="1">VLOOKUP(G99,Sheet1!$A$2:$D$12,2)</f>
@@ -10850,71 +10537,71 @@
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <f ca="1">VLOOKUP(K99,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N99" t="str">
         <f ca="1">VLOOKUP(M99,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="100" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L100">
         <f ca="1">VLOOKUP(K100,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N100" t="str">
         <f ca="1">VLOOKUP(M100,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="101" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G101">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="10"/>
@@ -10926,51 +10613,51 @@
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N101" t="str">
         <f ca="1">VLOOKUP(M101,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="102" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G102">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102">
         <f ca="1">VLOOKUP(K102,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N102" t="str">
         <f ca="1">VLOOKUP(M102,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="103" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G103">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H103" t="str">
         <f ca="1">VLOOKUP(G103,Sheet1!$A$2:$D$12,2)</f>
@@ -10986,33 +10673,33 @@
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L103">
         <f ca="1">VLOOKUP(K103,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M103">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N103" t="str">
         <f ca="1">VLOOKUP(M103,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="104" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G104">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,4)</f>
@@ -11020,11 +10707,11 @@
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L104">
         <f ca="1">VLOOKUP(K104,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="11"/>
@@ -11038,19 +10725,19 @@
     <row r="105" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G105">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>F-150</v>
       </c>
       <c r="J105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="10"/>
@@ -11062,37 +10749,37 @@
       </c>
       <c r="M105">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N105" t="str">
         <f ca="1">VLOOKUP(M105,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="106" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G106">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L106">
         <f ca="1">VLOOKUP(K106,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="11"/>
@@ -11106,95 +10793,95 @@
     <row r="107" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G107">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L107">
         <f ca="1">VLOOKUP(K107,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N107" t="str">
         <f ca="1">VLOOKUP(M107,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="108" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G108">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108">
         <f ca="1">VLOOKUP(K108,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108" t="str">
         <f ca="1">VLOOKUP(M108,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="109" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G109">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Tahoe</v>
       </c>
       <c r="J109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>SUV</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L109">
         <f ca="1">VLOOKUP(K109,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="11"/>
@@ -11208,7 +10895,7 @@
     <row r="110" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G110">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H110" t="str">
         <f ca="1">VLOOKUP(G110,Sheet1!$A$2:$D$12,2)</f>
@@ -11232,25 +10919,25 @@
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N110" t="str">
         <f ca="1">VLOOKUP(M110,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="111" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G111">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,4)</f>
@@ -11258,25 +10945,25 @@
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L111">
         <f ca="1">VLOOKUP(K111,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N111" t="str">
         <f ca="1">VLOOKUP(M111,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="112" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G112">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H112" t="str">
         <f ca="1">VLOOKUP(G112,Sheet1!$A$2:$D$12,2)</f>
@@ -11292,11 +10979,11 @@
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L112">
         <f ca="1">VLOOKUP(K112,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="11"/>
@@ -11310,27 +10997,27 @@
     <row r="113" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G113">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L113">
         <f ca="1">VLOOKUP(K113,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="11"/>
@@ -11344,7 +11031,7 @@
     <row r="114" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G114">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H114" t="str">
         <f ca="1">VLOOKUP(G114,Sheet1!$A$2:$D$12,2)</f>
@@ -11360,25 +11047,25 @@
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114">
         <f ca="1">VLOOKUP(K114,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M114">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N114" t="str">
         <f ca="1">VLOOKUP(M114,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="115" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G115">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H115" t="str">
         <f ca="1">VLOOKUP(G115,Sheet1!$A$2:$D$12,2)</f>
@@ -11394,25 +11081,25 @@
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L115">
         <f ca="1">VLOOKUP(K115,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M115">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N115" t="str">
         <f ca="1">VLOOKUP(M115,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="116" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G116">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,2)</f>
@@ -11428,25 +11115,25 @@
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L116">
         <f ca="1">VLOOKUP(K116,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N116" t="str">
         <f ca="1">VLOOKUP(M116,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="117" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G117">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H117" t="str">
         <f ca="1">VLOOKUP(G117,Sheet1!$A$2:$D$12,2)</f>
@@ -11462,25 +11149,25 @@
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L117">
         <f ca="1">VLOOKUP(K117,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M117">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N117" t="str">
         <f ca="1">VLOOKUP(M117,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="118" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G118">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,2)</f>
@@ -11488,53 +11175,53 @@
       </c>
       <c r="I118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Dart</v>
       </c>
       <c r="J118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
         <f ca="1">VLOOKUP(K118,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M118">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N118" t="str">
         <f ca="1">VLOOKUP(M118,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="119" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G119">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L119">
         <f ca="1">VLOOKUP(K119,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M119">
         <f t="shared" ca="1" si="11"/>
@@ -11548,7 +11235,7 @@
     <row r="120" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G120">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H120" t="str">
         <f ca="1">VLOOKUP(G120,Sheet1!$A$2:$D$12,2)</f>
@@ -11564,19 +11251,19 @@
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <f ca="1">VLOOKUP(K120,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N120" t="str">
         <f ca="1">VLOOKUP(M120,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
   </sheetData>

--- a/updatedTables.xlsx
+++ b/updatedTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2a9e0f2cdcd083c/Documents/UCM/Fall22/CSE111/Final_Project/CSE111_FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\UCM\Fall22\CSE111\Final_Project\CSE111_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{D407B103-E72A-41B4-A238-2C77B4AC983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0004DA6D-C6E6-44F6-BAE1-44D5A003C1CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607B5133-2388-4B57-9C5D-305A2AF925B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30490" yWindow="1670" windowWidth="15390" windowHeight="9530" activeTab="4" xr2:uid="{04355D55-975A-46DE-A4FD-034198C20623}"/>
+    <workbookView xWindow="27250" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{04355D55-975A-46DE-A4FD-034198C20623}"/>
   </bookViews>
   <sheets>
     <sheet name="Automobile" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="171">
   <si>
     <t>a_make</t>
   </si>
@@ -543,81 +543,6 @@
   </si>
   <si>
     <t>t_trkey</t>
-  </si>
-  <si>
-    <t>3133-1100</t>
-  </si>
-  <si>
-    <t>3171-1101</t>
-  </si>
-  <si>
-    <t>3144-1102</t>
-  </si>
-  <si>
-    <t>3108-1103</t>
-  </si>
-  <si>
-    <t>3157-1104</t>
-  </si>
-  <si>
-    <t>3174-1105</t>
-  </si>
-  <si>
-    <t>3136-1106</t>
-  </si>
-  <si>
-    <t>3205-1107</t>
-  </si>
-  <si>
-    <t>3151-1108</t>
-  </si>
-  <si>
-    <t>3219-1109</t>
-  </si>
-  <si>
-    <t>3137-1110</t>
-  </si>
-  <si>
-    <t>3189-1111</t>
-  </si>
-  <si>
-    <t>3142-1112</t>
-  </si>
-  <si>
-    <t>3152-1113</t>
-  </si>
-  <si>
-    <t>3106-1114</t>
-  </si>
-  <si>
-    <t>3184-1115</t>
-  </si>
-  <si>
-    <t>3191-1116</t>
-  </si>
-  <si>
-    <t>3113-1117</t>
-  </si>
-  <si>
-    <t>3102-1118</t>
-  </si>
-  <si>
-    <t>3203-1119</t>
-  </si>
-  <si>
-    <t>3120-1120</t>
-  </si>
-  <si>
-    <t>3117-1121</t>
-  </si>
-  <si>
-    <t>3154-1122</t>
-  </si>
-  <si>
-    <t>3163-1123</t>
-  </si>
-  <si>
-    <t>3197-1124</t>
   </si>
   <si>
     <t>t_sellername</t>
@@ -701,10 +626,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5151B134-7B5D-4989-9AA1-455D134D7359}">
   <dimension ref="B1:I121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B121"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4304,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC131B9-323C-44FF-8B20-57CA2111FAA9}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5057,7 +4978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2859DB64-0EB5-4D85-8969-6B6F85CCABCF}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5203,9 +5126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B13B45D-6982-40C0-8DBB-D8AB0C38FEA2}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5214,13 +5135,13 @@
         <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5512,9 +5433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B93CC-4546-474A-9695-878A5CFF839C}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B96"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -6295,7 +6214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32E79C-3C55-449F-B442-96B6E35855FC}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6317,7 +6238,7 @@
         <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>160</v>
@@ -6327,8 +6248,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>167</v>
+      <c r="A2">
+        <v>31331100</v>
       </c>
       <c r="B2">
         <v>3133</v>
@@ -6347,8 +6268,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>168</v>
+      <c r="A3">
+        <v>31711101</v>
       </c>
       <c r="B3">
         <v>3171</v>
@@ -6368,8 +6289,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>169</v>
+      <c r="A4">
+        <v>31441102</v>
       </c>
       <c r="B4">
         <v>3144</v>
@@ -6389,8 +6310,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>170</v>
+      <c r="A5">
+        <v>31081103</v>
       </c>
       <c r="B5">
         <v>3108</v>
@@ -6410,8 +6331,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>171</v>
+      <c r="A6">
+        <v>31571104</v>
       </c>
       <c r="B6">
         <v>3157</v>
@@ -6431,8 +6352,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>172</v>
+      <c r="A7">
+        <v>31741105</v>
       </c>
       <c r="B7">
         <v>3174</v>
@@ -6452,8 +6373,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>173</v>
+      <c r="A8">
+        <v>31361106</v>
       </c>
       <c r="B8">
         <v>3136</v>
@@ -6473,8 +6394,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>174</v>
+      <c r="A9">
+        <v>32051107</v>
       </c>
       <c r="B9">
         <v>3205</v>
@@ -6494,8 +6415,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>175</v>
+      <c r="A10">
+        <v>31511108</v>
       </c>
       <c r="B10">
         <v>3151</v>
@@ -6515,8 +6436,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>176</v>
+      <c r="A11">
+        <v>32191109</v>
       </c>
       <c r="B11">
         <v>3219</v>
@@ -6536,8 +6457,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>177</v>
+      <c r="A12">
+        <v>31371110</v>
       </c>
       <c r="B12">
         <v>3137</v>
@@ -6557,8 +6478,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>178</v>
+      <c r="A13">
+        <v>31891111</v>
       </c>
       <c r="B13">
         <v>3189</v>
@@ -6578,8 +6499,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>179</v>
+      <c r="A14">
+        <v>31421112</v>
       </c>
       <c r="B14">
         <v>3142</v>
@@ -6599,8 +6520,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>180</v>
+      <c r="A15">
+        <v>31521113</v>
       </c>
       <c r="B15">
         <v>3152</v>
@@ -6620,8 +6541,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>181</v>
+      <c r="A16">
+        <v>31061114</v>
       </c>
       <c r="B16">
         <v>3106</v>
@@ -6641,8 +6562,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>182</v>
+      <c r="A17">
+        <v>31841115</v>
       </c>
       <c r="B17">
         <v>3184</v>
@@ -6662,8 +6583,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>183</v>
+      <c r="A18">
+        <v>31911116</v>
       </c>
       <c r="B18">
         <v>3191</v>
@@ -6683,8 +6604,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>184</v>
+      <c r="A19">
+        <v>31131117</v>
       </c>
       <c r="B19">
         <v>3113</v>
@@ -6704,8 +6625,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>185</v>
+      <c r="A20">
+        <v>31021118</v>
       </c>
       <c r="B20">
         <v>3102</v>
@@ -6725,8 +6646,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>186</v>
+      <c r="A21">
+        <v>32031119</v>
       </c>
       <c r="B21">
         <v>3203</v>
@@ -6746,8 +6667,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>187</v>
+      <c r="A22">
+        <v>31201120</v>
       </c>
       <c r="B22">
         <v>3120</v>
@@ -6767,8 +6688,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>188</v>
+      <c r="A23">
+        <v>31171121</v>
       </c>
       <c r="B23">
         <v>3117</v>
@@ -6788,8 +6709,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>189</v>
+      <c r="A24">
+        <v>31541122</v>
       </c>
       <c r="B24">
         <v>3154</v>
@@ -6809,8 +6730,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>190</v>
+      <c r="A25">
+        <v>31631123</v>
       </c>
       <c r="B25">
         <v>3163</v>
@@ -6830,8 +6751,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>191</v>
+      <c r="A26">
+        <v>31971124</v>
       </c>
       <c r="B26">
         <v>3197</v>
@@ -6877,35 +6798,35 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G32" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J1" t="str">
         <f ca="1">VLOOKUP(G1,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K1">
         <f t="shared" ref="K1:K32" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1">
         <f ca="1">VLOOKUP(K1,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M1">
         <f t="shared" ref="M1:M32" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" t="str">
         <f ca="1">VLOOKUP(M1,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -6923,35 +6844,35 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Durango</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">VLOOKUP(G2,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <f ca="1">VLOOKUP(K2,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="str">
         <f ca="1">VLOOKUP(M2,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -6969,19 +6890,19 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J3" t="str">
         <f ca="1">VLOOKUP(G3,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
@@ -6993,11 +6914,11 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="str">
         <f ca="1">VLOOKUP(M3,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -7015,35 +6936,35 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J4" t="str">
         <f ca="1">VLOOKUP(G4,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f ca="1">VLOOKUP(K4,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="str">
         <f ca="1">VLOOKUP(M4,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -7061,35 +6982,35 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Spark</v>
       </c>
       <c r="J5" t="str">
         <f ca="1">VLOOKUP(G5,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <f ca="1">VLOOKUP(K5,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="str">
         <f ca="1">VLOOKUP(M5,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -7107,19 +7028,19 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J6" t="str">
         <f ca="1">VLOOKUP(G6,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
@@ -7153,19 +7074,19 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H7" t="str">
         <f ca="1">VLOOKUP(G7,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I7" t="str">
         <f ca="1">VLOOKUP(G7,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J7" t="str">
         <f ca="1">VLOOKUP(G7,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
@@ -7177,11 +7098,11 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="str">
         <f ca="1">VLOOKUP(M7,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -7199,7 +7120,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,2)</f>
@@ -7207,27 +7128,27 @@
       </c>
       <c r="I8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J8" t="str">
         <f ca="1">VLOOKUP(G8,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f ca="1">VLOOKUP(K8,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="str">
         <f ca="1">VLOOKUP(M8,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -7245,7 +7166,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" t="str">
         <f ca="1">VLOOKUP(G9,Sheet1!$A$2:$D$12,2)</f>
@@ -7261,19 +7182,19 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <f ca="1">VLOOKUP(K9,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="str">
         <f ca="1">VLOOKUP(M9,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -7291,7 +7212,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,2)</f>
@@ -7299,11 +7220,11 @@
       </c>
       <c r="I10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J10" t="str">
         <f ca="1">VLOOKUP(G10,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
@@ -7315,11 +7236,11 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="str">
         <f ca="1">VLOOKUP(M10,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -7337,7 +7258,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="str">
         <f ca="1">VLOOKUP(G11,Sheet1!$A$2:$D$12,2)</f>
@@ -7353,19 +7274,19 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <f ca="1">VLOOKUP(K11,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="str">
         <f ca="1">VLOOKUP(M11,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -7383,35 +7304,35 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J12" t="str">
         <f ca="1">VLOOKUP(G12,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f ca="1">VLOOKUP(K12,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="str">
         <f ca="1">VLOOKUP(M12,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -7445,19 +7366,19 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f ca="1">VLOOKUP(K13,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="str">
         <f ca="1">VLOOKUP(M13,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -7475,15 +7396,15 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J14" t="str">
         <f ca="1">VLOOKUP(G14,Sheet1!$A$2:$D$12,4)</f>
@@ -7499,11 +7420,11 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="str">
         <f ca="1">VLOOKUP(M14,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -7521,7 +7442,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H15" t="str">
         <f ca="1">VLOOKUP(G15,Sheet1!$A$2:$D$12,2)</f>
@@ -7567,15 +7488,15 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Dart</v>
       </c>
       <c r="J16" t="str">
         <f ca="1">VLOOKUP(G16,Sheet1!$A$2:$D$12,4)</f>
@@ -7583,19 +7504,19 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <f ca="1">VLOOKUP(K16,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="str">
         <f ca="1">VLOOKUP(M16,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
@@ -7613,19 +7534,19 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H17" t="str">
         <f ca="1">VLOOKUP(G17,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I17" t="str">
         <f ca="1">VLOOKUP(G17,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J17" t="str">
         <f ca="1">VLOOKUP(G17,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
@@ -7659,15 +7580,15 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J18" t="str">
         <f ca="1">VLOOKUP(G18,Sheet1!$A$2:$D$12,4)</f>
@@ -7675,19 +7596,19 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <f ca="1">VLOOKUP(K18,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="str">
         <f ca="1">VLOOKUP(M18,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -7705,27 +7626,27 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J19" t="str">
         <f ca="1">VLOOKUP(G19,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <f ca="1">VLOOKUP(K19,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
@@ -7751,7 +7672,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,2)</f>
@@ -7759,19 +7680,19 @@
       </c>
       <c r="I20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Silverado</v>
       </c>
       <c r="J20" t="str">
         <f ca="1">VLOOKUP(G20,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Pick-up</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <f ca="1">VLOOKUP(K20,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
@@ -7797,15 +7718,15 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Explorer</v>
       </c>
       <c r="J21" t="str">
         <f ca="1">VLOOKUP(G21,Sheet1!$A$2:$D$12,4)</f>
@@ -7831,7 +7752,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H22" t="str">
         <f ca="1">VLOOKUP(G22,Sheet1!$A$2:$D$12,2)</f>
@@ -7839,33 +7760,33 @@
       </c>
       <c r="I22" t="str">
         <f ca="1">VLOOKUP(G22,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J22" t="str">
         <f ca="1">VLOOKUP(G22,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <f ca="1">VLOOKUP(K22,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="str">
         <f ca="1">VLOOKUP(M22,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,2)</f>
@@ -7873,27 +7794,27 @@
       </c>
       <c r="I23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J23" t="str">
         <f ca="1">VLOOKUP(G23,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23">
         <f ca="1">VLOOKUP(K23,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="str">
         <f ca="1">VLOOKUP(M23,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
@@ -7921,19 +7842,19 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <f ca="1">VLOOKUP(K24,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="str">
         <f ca="1">VLOOKUP(M24,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
@@ -7948,19 +7869,19 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J25" t="str">
         <f ca="1">VLOOKUP(G25,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
@@ -7972,11 +7893,11 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="str">
         <f ca="1">VLOOKUP(M25,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
@@ -7991,35 +7912,35 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J26" t="str">
         <f ca="1">VLOOKUP(G26,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <f ca="1">VLOOKUP(K26,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="str">
         <f ca="1">VLOOKUP(M26,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
@@ -8034,15 +7955,15 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,3)</f>
-        <v>Focus</v>
+        <v>Dart</v>
       </c>
       <c r="J27" t="str">
         <f ca="1">VLOOKUP(G27,Sheet1!$A$2:$D$12,4)</f>
@@ -8050,19 +7971,19 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <f ca="1">VLOOKUP(K27,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="str">
         <f ca="1">VLOOKUP(M27,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
@@ -8077,7 +7998,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,2)</f>
@@ -8085,61 +8006,61 @@
       </c>
       <c r="I28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Challenger</v>
       </c>
       <c r="J28" t="str">
         <f ca="1">VLOOKUP(G28,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <f ca="1">VLOOKUP(K28,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="str">
         <f ca="1">VLOOKUP(M28,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J29" t="str">
         <f ca="1">VLOOKUP(G29,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29">
         <f ca="1">VLOOKUP(K29,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="str">
         <f ca="1">VLOOKUP(M29,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
@@ -8151,7 +8072,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H30" t="str">
         <f ca="1">VLOOKUP(G30,Sheet1!$A$2:$D$12,2)</f>
@@ -8191,35 +8112,35 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J31" t="str">
         <f ca="1">VLOOKUP(G31,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <f ca="1">VLOOKUP(K31,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="str">
         <f ca="1">VLOOKUP(M31,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
@@ -8231,7 +8152,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32" t="str">
         <f ca="1">VLOOKUP(G32,Sheet1!$A$2:$D$12,2)</f>
@@ -8247,19 +8168,19 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <f ca="1">VLOOKUP(K32,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="str">
         <f ca="1">VLOOKUP(M32,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
@@ -8271,15 +8192,15 @@
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G64" ca="1" si="3">RANDBETWEEN(1,20)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J33" t="str">
         <f ca="1">VLOOKUP(G33,Sheet1!$A$2:$D$12,4)</f>
@@ -8287,19 +8208,19 @@
       </c>
       <c r="K33">
         <f t="shared" ref="K33:K64" ca="1" si="4">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <f ca="1">VLOOKUP(K33,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M64" ca="1" si="5">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="str">
         <f ca="1">VLOOKUP(M33,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
@@ -8311,143 +8232,143 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J34" t="str">
         <f ca="1">VLOOKUP(G34,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <f ca="1">VLOOKUP(K34,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="str">
         <f ca="1">VLOOKUP(M34,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Spark</v>
       </c>
       <c r="J35" t="str">
         <f ca="1">VLOOKUP(G35,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <f ca="1">VLOOKUP(K35,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="str">
         <f ca="1">VLOOKUP(M35,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J36" t="str">
         <f ca="1">VLOOKUP(G36,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36">
         <f ca="1">VLOOKUP(K36,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="str">
         <f ca="1">VLOOKUP(M36,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J37" t="str">
         <f ca="1">VLOOKUP(G37,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37">
         <f ca="1">VLOOKUP(K37,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="str">
         <f ca="1">VLOOKUP(M37,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H38" t="str">
         <f ca="1">VLOOKUP(G38,Sheet1!$A$2:$D$12,2)</f>
@@ -8455,33 +8376,33 @@
       </c>
       <c r="I38" t="str">
         <f ca="1">VLOOKUP(G38,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Spark</v>
       </c>
       <c r="J38" t="str">
         <f ca="1">VLOOKUP(G38,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <f ca="1">VLOOKUP(K38,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" t="str">
         <f ca="1">VLOOKUP(M38,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,2)</f>
@@ -8489,19 +8410,19 @@
       </c>
       <c r="I39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,3)</f>
-        <v>Spark</v>
+        <v>Tahoe</v>
       </c>
       <c r="J39" t="str">
         <f ca="1">VLOOKUP(G39,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <f ca="1">VLOOKUP(K39,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
@@ -8515,19 +8436,19 @@
     <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Tahoe</v>
       </c>
       <c r="J40" t="str">
         <f ca="1">VLOOKUP(G40,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>SUV</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="4"/>
@@ -8549,19 +8470,19 @@
     <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J41" t="str">
         <f ca="1">VLOOKUP(G41,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="4"/>
@@ -8573,11 +8494,11 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="str">
         <f ca="1">VLOOKUP(M41,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.45">
@@ -8617,121 +8538,121 @@
     <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J43" t="str">
         <f ca="1">VLOOKUP(G43,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43">
         <f ca="1">VLOOKUP(K43,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="str">
         <f ca="1">VLOOKUP(M43,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J44" t="str">
         <f ca="1">VLOOKUP(G44,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <f ca="1">VLOOKUP(K44,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="str">
         <f ca="1">VLOOKUP(M44,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Silverado</v>
       </c>
       <c r="J45" t="str">
         <f ca="1">VLOOKUP(G45,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Pick-up</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <f ca="1">VLOOKUP(K45,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="str">
         <f ca="1">VLOOKUP(M45,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J46" t="str">
         <f ca="1">VLOOKUP(G46,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="4"/>
@@ -8743,17 +8664,17 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="str">
         <f ca="1">VLOOKUP(M46,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H47" t="str">
         <f ca="1">VLOOKUP(G47,Sheet1!$A$2:$D$12,2)</f>
@@ -8769,25 +8690,25 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <f ca="1">VLOOKUP(K47,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N47" t="str">
         <f ca="1">VLOOKUP(M47,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H48" t="str">
         <f ca="1">VLOOKUP(G48,Sheet1!$A$2:$D$12,2)</f>
@@ -8795,33 +8716,33 @@
       </c>
       <c r="I48" t="str">
         <f ca="1">VLOOKUP(G48,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J48" t="str">
         <f ca="1">VLOOKUP(G48,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <f ca="1">VLOOKUP(K48,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" t="str">
         <f ca="1">VLOOKUP(M48,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="49" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,2)</f>
@@ -8829,45 +8750,45 @@
       </c>
       <c r="I49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,3)</f>
-        <v>Challenger</v>
+        <v>Dart</v>
       </c>
       <c r="J49" t="str">
         <f ca="1">VLOOKUP(G49,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <f ca="1">VLOOKUP(K49,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49" t="str">
         <f ca="1">VLOOKUP(M49,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="50" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H50" t="str">
         <f ca="1">VLOOKUP(G50,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I50" t="str">
         <f ca="1">VLOOKUP(G50,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J50" t="str">
         <f ca="1">VLOOKUP(G50,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="4"/>
@@ -8879,25 +8800,25 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N50" t="str">
         <f ca="1">VLOOKUP(M50,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="51" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J51" t="str">
         <f ca="1">VLOOKUP(G51,Sheet1!$A$2:$D$12,4)</f>
@@ -8913,25 +8834,25 @@
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" t="str">
         <f ca="1">VLOOKUP(M51,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="52" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H52" t="str">
         <f ca="1">VLOOKUP(G52,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I52" t="str">
         <f ca="1">VLOOKUP(G52,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J52" t="str">
         <f ca="1">VLOOKUP(G52,Sheet1!$A$2:$D$12,4)</f>
@@ -8939,67 +8860,67 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <f ca="1">VLOOKUP(K52,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52" t="str">
         <f ca="1">VLOOKUP(M52,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="53" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H53" t="str">
         <f ca="1">VLOOKUP(G53,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I53" t="str">
         <f ca="1">VLOOKUP(G53,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Tahoe</v>
       </c>
       <c r="J53" t="str">
         <f ca="1">VLOOKUP(G53,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L53">
         <f ca="1">VLOOKUP(K53,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="str">
         <f ca="1">VLOOKUP(M53,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="54" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J54" t="str">
         <f ca="1">VLOOKUP(G54,Sheet1!$A$2:$D$12,4)</f>
@@ -9007,37 +8928,37 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54">
         <f ca="1">VLOOKUP(K54,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="str">
         <f ca="1">VLOOKUP(M54,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="55" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J55" t="str">
         <f ca="1">VLOOKUP(G55,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
@@ -9049,59 +8970,59 @@
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N55" t="str">
         <f ca="1">VLOOKUP(M55,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="56" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J56" t="str">
         <f ca="1">VLOOKUP(G56,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L56">
         <f ca="1">VLOOKUP(K56,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="str">
         <f ca="1">VLOOKUP(M56,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="57" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J57" t="str">
         <f ca="1">VLOOKUP(G57,Sheet1!$A$2:$D$12,4)</f>
@@ -9109,79 +9030,79 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L57">
         <f ca="1">VLOOKUP(K57,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57" t="str">
         <f ca="1">VLOOKUP(M57,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="58" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J58" t="str">
         <f ca="1">VLOOKUP(G58,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <f ca="1">VLOOKUP(K58,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" t="str">
         <f ca="1">VLOOKUP(M58,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="59" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J59" t="str">
         <f ca="1">VLOOKUP(G59,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L59">
         <f ca="1">VLOOKUP(K59,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
@@ -9195,19 +9116,19 @@
     <row r="60" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J60" t="str">
         <f ca="1">VLOOKUP(G60,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="4"/>
@@ -9219,131 +9140,131 @@
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" t="str">
         <f ca="1">VLOOKUP(M60,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="61" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J61" t="str">
         <f ca="1">VLOOKUP(G61,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <f ca="1">VLOOKUP(K61,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61" t="str">
         <f ca="1">VLOOKUP(M61,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="62" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,3)</f>
-        <v>Silverado</v>
+        <v>Dart</v>
       </c>
       <c r="J62" t="str">
         <f ca="1">VLOOKUP(G62,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <f ca="1">VLOOKUP(K62,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N62" t="str">
         <f ca="1">VLOOKUP(M62,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="63" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J63" t="str">
         <f ca="1">VLOOKUP(G63,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L63">
         <f ca="1">VLOOKUP(K63,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N63" t="str">
         <f ca="1">VLOOKUP(M63,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="64" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J64" t="str">
         <f ca="1">VLOOKUP(G64,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="4"/>
@@ -9365,7 +9286,7 @@
     <row r="65" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G65">
         <f t="shared" ref="G65:G96" ca="1" si="6">RANDBETWEEN(1,20)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H65" t="str">
         <f ca="1">VLOOKUP(G65,Sheet1!$A$2:$D$12,2)</f>
@@ -9381,67 +9302,67 @@
       </c>
       <c r="K65">
         <f t="shared" ref="K65:K96" ca="1" si="7">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <f ca="1">VLOOKUP(K65,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M96" ca="1" si="8">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" t="str">
         <f ca="1">VLOOKUP(M65,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="66" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G66">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Durango</v>
       </c>
       <c r="J66" t="str">
         <f ca="1">VLOOKUP(G66,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>SUV</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <f ca="1">VLOOKUP(K66,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="str">
         <f ca="1">VLOOKUP(M66,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="67" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G67">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J67" t="str">
         <f ca="1">VLOOKUP(G67,Sheet1!$A$2:$D$12,4)</f>
@@ -9449,19 +9370,19 @@
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <f ca="1">VLOOKUP(K67,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67" t="str">
         <f ca="1">VLOOKUP(M67,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="68" spans="7:14" x14ac:dyDescent="0.45">
@@ -9483,11 +9404,11 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <f ca="1">VLOOKUP(K68,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="8"/>
@@ -9501,15 +9422,15 @@
     <row r="69" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G69">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H69" t="str">
         <f ca="1">VLOOKUP(G69,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I69" t="str">
         <f ca="1">VLOOKUP(G69,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J69" t="str">
         <f ca="1">VLOOKUP(G69,Sheet1!$A$2:$D$12,4)</f>
@@ -9525,51 +9446,51 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N69" t="str">
         <f ca="1">VLOOKUP(M69,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="70" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J70" t="str">
         <f ca="1">VLOOKUP(G70,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70">
         <f ca="1">VLOOKUP(K70,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" t="str">
         <f ca="1">VLOOKUP(M70,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="71" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G71">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="str">
         <f ca="1">VLOOKUP(G71,Sheet1!$A$2:$D$12,2)</f>
@@ -9593,51 +9514,51 @@
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N71" t="str">
         <f ca="1">VLOOKUP(M71,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="72" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G72">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J72" t="str">
         <f ca="1">VLOOKUP(G72,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <f ca="1">VLOOKUP(K72,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" t="str">
         <f ca="1">VLOOKUP(M72,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="73" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G73">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H73" t="str">
         <f ca="1">VLOOKUP(G73,Sheet1!$A$2:$D$12,2)</f>
@@ -9653,67 +9574,67 @@
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73">
         <f ca="1">VLOOKUP(K73,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N73" t="str">
         <f ca="1">VLOOKUP(M73,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="74" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G74">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Cruze</v>
       </c>
       <c r="J74" t="str">
         <f ca="1">VLOOKUP(G74,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <f ca="1">VLOOKUP(K74,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N74" t="str">
         <f ca="1">VLOOKUP(M74,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="75" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G75">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H75" t="str">
         <f ca="1">VLOOKUP(G75,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I75" t="str">
         <f ca="1">VLOOKUP(G75,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J75" t="str">
         <f ca="1">VLOOKUP(G75,Sheet1!$A$2:$D$12,4)</f>
@@ -9721,79 +9642,79 @@
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L75">
         <f ca="1">VLOOKUP(K75,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N75" t="str">
         <f ca="1">VLOOKUP(M75,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="76" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G76">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H76" t="str">
         <f ca="1">VLOOKUP(G76,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I76" t="str">
         <f ca="1">VLOOKUP(G76,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J76" t="str">
         <f ca="1">VLOOKUP(G76,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <f ca="1">VLOOKUP(K76,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N76" t="str">
         <f ca="1">VLOOKUP(M76,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="77" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Dart</v>
       </c>
       <c r="J77" t="str">
         <f ca="1">VLOOKUP(G77,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <f ca="1">VLOOKUP(K77,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="8"/>
@@ -9823,25 +9744,25 @@
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <f ca="1">VLOOKUP(K78,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78" t="str">
         <f ca="1">VLOOKUP(M78,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="79" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H79" t="str">
         <f ca="1">VLOOKUP(G79,Sheet1!$A$2:$D$12,2)</f>
@@ -9857,25 +9778,25 @@
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L79">
         <f ca="1">VLOOKUP(K79,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N79" t="str">
         <f ca="1">VLOOKUP(M79,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="80" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H80" t="str">
         <f ca="1">VLOOKUP(G80,Sheet1!$A$2:$D$12,2)</f>
@@ -9891,11 +9812,11 @@
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <f ca="1">VLOOKUP(K80,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="8"/>
@@ -9909,7 +9830,7 @@
     <row r="81" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H81" t="str">
         <f ca="1">VLOOKUP(G81,Sheet1!$A$2:$D$12,2)</f>
@@ -9925,25 +9846,25 @@
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <f ca="1">VLOOKUP(K81,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N81" t="str">
         <f ca="1">VLOOKUP(M81,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="82" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H82" t="str">
         <f ca="1">VLOOKUP(G82,Sheet1!$A$2:$D$12,2)</f>
@@ -9959,25 +9880,25 @@
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82">
         <f ca="1">VLOOKUP(K82,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82" t="str">
         <f ca="1">VLOOKUP(M82,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="83" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H83" t="str">
         <f ca="1">VLOOKUP(G83,Sheet1!$A$2:$D$12,2)</f>
@@ -9993,11 +9914,11 @@
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83">
         <f ca="1">VLOOKUP(K83,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="8"/>
@@ -10011,7 +9932,7 @@
     <row r="84" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,2)</f>
@@ -10019,53 +9940,53 @@
       </c>
       <c r="I84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,3)</f>
-        <v>Mustang</v>
+        <v>Focus</v>
       </c>
       <c r="J84" t="str">
         <f ca="1">VLOOKUP(G84,Sheet1!$A$2:$D$12,4)</f>
-        <v>Coupe</v>
+        <v>Sedan</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <f ca="1">VLOOKUP(K84,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N84" t="str">
         <f ca="1">VLOOKUP(M84,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="85" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Silverado</v>
       </c>
       <c r="J85" t="str">
         <f ca="1">VLOOKUP(G85,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Pick-up</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L85">
         <f ca="1">VLOOKUP(K85,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="8"/>
@@ -10079,7 +10000,7 @@
     <row r="86" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H86" t="str">
         <f ca="1">VLOOKUP(G86,Sheet1!$A$2:$D$12,2)</f>
@@ -10095,11 +10016,11 @@
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <f ca="1">VLOOKUP(K86,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="8"/>
@@ -10137,11 +10058,11 @@
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N87" t="str">
         <f ca="1">VLOOKUP(M87,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>White</v>
       </c>
     </row>
     <row r="88" spans="7:14" x14ac:dyDescent="0.45">
@@ -10163,59 +10084,59 @@
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <f ca="1">VLOOKUP(K88,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N88" t="str">
         <f ca="1">VLOOKUP(M88,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>White</v>
       </c>
     </row>
     <row r="89" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J89" t="str">
         <f ca="1">VLOOKUP(G89,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L89">
         <f ca="1">VLOOKUP(K89,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N89" t="str">
         <f ca="1">VLOOKUP(M89,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="90" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H90" t="str">
         <f ca="1">VLOOKUP(G90,Sheet1!$A$2:$D$12,2)</f>
@@ -10231,25 +10152,25 @@
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L90">
         <f ca="1">VLOOKUP(K90,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N90" t="str">
         <f ca="1">VLOOKUP(M90,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="91" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H91" t="str">
         <f ca="1">VLOOKUP(G91,Sheet1!$A$2:$D$12,2)</f>
@@ -10273,25 +10194,25 @@
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N91" t="str">
         <f ca="1">VLOOKUP(M91,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="92" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,3)</f>
-        <v>Durango</v>
+        <v>Explorer</v>
       </c>
       <c r="J92" t="str">
         <f ca="1">VLOOKUP(G92,Sheet1!$A$2:$D$12,4)</f>
@@ -10299,59 +10220,59 @@
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <f ca="1">VLOOKUP(K92,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92" t="str">
         <f ca="1">VLOOKUP(M92,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="93" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>F-150</v>
       </c>
       <c r="J93" t="str">
         <f ca="1">VLOOKUP(G93,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93">
         <f ca="1">VLOOKUP(K93,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N93" t="str">
         <f ca="1">VLOOKUP(M93,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="94" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H94" t="str">
         <f ca="1">VLOOKUP(G94,Sheet1!$A$2:$D$12,2)</f>
@@ -10367,25 +10288,25 @@
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94">
         <f ca="1">VLOOKUP(K94,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94" t="str">
         <f ca="1">VLOOKUP(M94,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="95" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H95" t="str">
         <f ca="1">VLOOKUP(G95,Sheet1!$A$2:$D$12,2)</f>
@@ -10409,45 +10330,45 @@
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N95" t="str">
         <f ca="1">VLOOKUP(M95,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="96" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Spark</v>
       </c>
       <c r="J96" t="str">
         <f ca="1">VLOOKUP(G96,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <f ca="1">VLOOKUP(K96,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N96" t="str">
         <f ca="1">VLOOKUP(M96,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="97" spans="7:14" x14ac:dyDescent="0.45">
@@ -10469,25 +10390,25 @@
       </c>
       <c r="K97">
         <f t="shared" ref="K97:K120" ca="1" si="10">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97">
         <f ca="1">VLOOKUP(K97,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M120" ca="1" si="11">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N97" t="str">
         <f ca="1">VLOOKUP(M97,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="98" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G98">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="str">
         <f ca="1">VLOOKUP(G98,Sheet1!$A$2:$D$12,2)</f>
@@ -10503,25 +10424,25 @@
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L98">
         <f ca="1">VLOOKUP(K98,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98" t="str">
         <f ca="1">VLOOKUP(M98,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="99" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G99">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H99" t="str">
         <f ca="1">VLOOKUP(G99,Sheet1!$A$2:$D$12,2)</f>
@@ -10537,25 +10458,25 @@
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <f ca="1">VLOOKUP(K99,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N99" t="str">
         <f ca="1">VLOOKUP(M99,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="100" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,2)</f>
@@ -10563,11 +10484,11 @@
       </c>
       <c r="I100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J100" t="str">
         <f ca="1">VLOOKUP(G100,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="10"/>
@@ -10579,17 +10500,17 @@
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100" t="str">
         <f ca="1">VLOOKUP(M100,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="101" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G101">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H101" t="str">
         <f ca="1">VLOOKUP(G101,Sheet1!$A$2:$D$12,2)</f>
@@ -10605,67 +10526,67 @@
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <f ca="1">VLOOKUP(K101,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N101" t="str">
         <f ca="1">VLOOKUP(M101,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="102" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G102">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Dart</v>
       </c>
       <c r="J102" t="str">
         <f ca="1">VLOOKUP(G102,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L102">
         <f ca="1">VLOOKUP(K102,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N102" t="str">
         <f ca="1">VLOOKUP(M102,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="103" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G103">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H103" t="str">
         <f ca="1">VLOOKUP(G103,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I103" t="str">
         <f ca="1">VLOOKUP(G103,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J103" t="str">
         <f ca="1">VLOOKUP(G103,Sheet1!$A$2:$D$12,4)</f>
@@ -10673,33 +10594,33 @@
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L103">
         <f ca="1">VLOOKUP(K103,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M103">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" t="str">
         <f ca="1">VLOOKUP(M103,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="104" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G104">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Spark</v>
       </c>
       <c r="J104" t="str">
         <f ca="1">VLOOKUP(G104,Sheet1!$A$2:$D$12,4)</f>
@@ -10707,105 +10628,105 @@
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <f ca="1">VLOOKUP(K104,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N104" t="str">
         <f ca="1">VLOOKUP(M104,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="105" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G105">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,3)</f>
-        <v>F-150</v>
+        <v>Dart</v>
       </c>
       <c r="J105" t="str">
         <f ca="1">VLOOKUP(G105,Sheet1!$A$2:$D$12,4)</f>
-        <v>Pick-up</v>
+        <v>Sedan</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105">
         <f ca="1">VLOOKUP(K105,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M105">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N105" t="str">
         <f ca="1">VLOOKUP(M105,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="106" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G106">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Ford</v>
       </c>
       <c r="I106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Focus</v>
       </c>
       <c r="J106" t="str">
         <f ca="1">VLOOKUP(G106,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L106">
         <f ca="1">VLOOKUP(K106,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N106" t="str">
         <f ca="1">VLOOKUP(M106,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="107" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G107">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,2)</f>
-        <v>Ford</v>
+        <v>Dodge</v>
       </c>
       <c r="I107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,3)</f>
-        <v>Explorer</v>
+        <v>Dart</v>
       </c>
       <c r="J107" t="str">
         <f ca="1">VLOOKUP(G107,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Sedan</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="10"/>
@@ -10817,17 +10738,17 @@
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N107" t="str">
         <f ca="1">VLOOKUP(M107,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>White</v>
       </c>
     </row>
     <row r="108" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G108">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H108" t="str">
         <f ca="1">VLOOKUP(G108,Sheet1!$A$2:$D$12,2)</f>
@@ -10843,59 +10764,59 @@
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108">
         <f ca="1">VLOOKUP(K108,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N108" t="str">
         <f ca="1">VLOOKUP(M108,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="109" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G109">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,3)</f>
-        <v>Tahoe</v>
+        <v>Challenger</v>
       </c>
       <c r="J109" t="str">
         <f ca="1">VLOOKUP(G109,Sheet1!$A$2:$D$12,4)</f>
-        <v>SUV</v>
+        <v>Coupe</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L109">
         <f ca="1">VLOOKUP(K109,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N109" t="str">
         <f ca="1">VLOOKUP(M109,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="110" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G110">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" t="str">
         <f ca="1">VLOOKUP(G110,Sheet1!$A$2:$D$12,2)</f>
@@ -10911,33 +10832,33 @@
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L110">
         <f ca="1">VLOOKUP(K110,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N110" t="str">
         <f ca="1">VLOOKUP(M110,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="111" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G111">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,2)</f>
-        <v>Chevrolet</v>
+        <v>Dodge</v>
       </c>
       <c r="I111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,3)</f>
-        <v>Cruze</v>
+        <v>Dart</v>
       </c>
       <c r="J111" t="str">
         <f ca="1">VLOOKUP(G111,Sheet1!$A$2:$D$12,4)</f>
@@ -10945,33 +10866,33 @@
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L111">
         <f ca="1">VLOOKUP(K111,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N111" t="str">
         <f ca="1">VLOOKUP(M111,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="112" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G112">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H112" t="str">
         <f ca="1">VLOOKUP(G112,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I112" t="str">
         <f ca="1">VLOOKUP(G112,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Focus</v>
       </c>
       <c r="J112" t="str">
         <f ca="1">VLOOKUP(G112,Sheet1!$A$2:$D$12,4)</f>
@@ -10987,59 +10908,59 @@
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N112" t="str">
         <f ca="1">VLOOKUP(M112,Sheet1!$B$30:$C$34,2)</f>
-        <v>Red</v>
+        <v>White</v>
       </c>
     </row>
     <row r="113" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G113">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>F-150</v>
       </c>
       <c r="J113" t="str">
         <f ca="1">VLOOKUP(G113,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Pick-up</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L113">
         <f ca="1">VLOOKUP(K113,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N113" t="str">
         <f ca="1">VLOOKUP(M113,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="114" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G114">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H114" t="str">
         <f ca="1">VLOOKUP(G114,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Chevrolet</v>
       </c>
       <c r="I114" t="str">
         <f ca="1">VLOOKUP(G114,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Cruze</v>
       </c>
       <c r="J114" t="str">
         <f ca="1">VLOOKUP(G114,Sheet1!$A$2:$D$12,4)</f>
@@ -11047,25 +10968,25 @@
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L114">
         <f ca="1">VLOOKUP(K114,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M114">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N114" t="str">
         <f ca="1">VLOOKUP(M114,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="115" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G115">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H115" t="str">
         <f ca="1">VLOOKUP(G115,Sheet1!$A$2:$D$12,2)</f>
@@ -11081,11 +11002,11 @@
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L115">
         <f ca="1">VLOOKUP(K115,Sheet1!$B$25:$C$28,2)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M115">
         <f t="shared" ca="1" si="11"/>
@@ -11099,7 +11020,7 @@
     <row r="116" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G116">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,2)</f>
@@ -11107,45 +11028,45 @@
       </c>
       <c r="I116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J116" t="str">
         <f ca="1">VLOOKUP(G116,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <f ca="1">VLOOKUP(K116,Sheet1!$B$25:$C$28,2)</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N116" t="str">
         <f ca="1">VLOOKUP(M116,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Black</v>
       </c>
     </row>
     <row r="117" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G117">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H117" t="str">
         <f ca="1">VLOOKUP(G117,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I117" t="str">
         <f ca="1">VLOOKUP(G117,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Explorer</v>
       </c>
       <c r="J117" t="str">
         <f ca="1">VLOOKUP(G117,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="10"/>
@@ -11157,17 +11078,17 @@
       </c>
       <c r="M117">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N117" t="str">
         <f ca="1">VLOOKUP(M117,Sheet1!$B$30:$C$34,2)</f>
-        <v>Black</v>
+        <v>Green</v>
       </c>
     </row>
     <row r="118" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G118">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H118" t="str">
         <f ca="1">VLOOKUP(G118,Sheet1!$A$2:$D$12,2)</f>
@@ -11183,59 +11104,59 @@
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L118">
         <f ca="1">VLOOKUP(K118,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M118">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118" t="str">
         <f ca="1">VLOOKUP(M118,Sheet1!$B$30:$C$34,2)</f>
-        <v>Green</v>
+        <v>Red</v>
       </c>
     </row>
     <row r="119" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G119">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,2)</f>
-        <v>Dodge</v>
+        <v>Ford</v>
       </c>
       <c r="I119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Mustang</v>
       </c>
       <c r="J119" t="str">
         <f ca="1">VLOOKUP(G119,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>Coupe</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L119">
         <f ca="1">VLOOKUP(K119,Sheet1!$B$25:$C$28,2)</f>
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M119">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N119" t="str">
         <f ca="1">VLOOKUP(M119,Sheet1!$B$30:$C$34,2)</f>
-        <v>White</v>
+        <v>Blue</v>
       </c>
     </row>
     <row r="120" spans="7:14" x14ac:dyDescent="0.45">
       <c r="G120">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H120" t="str">
         <f ca="1">VLOOKUP(G120,Sheet1!$A$2:$D$12,2)</f>
@@ -11243,27 +11164,27 @@
       </c>
       <c r="I120" t="str">
         <f ca="1">VLOOKUP(G120,Sheet1!$A$2:$D$12,3)</f>
-        <v>Dart</v>
+        <v>Durango</v>
       </c>
       <c r="J120" t="str">
         <f ca="1">VLOOKUP(G120,Sheet1!$A$2:$D$12,4)</f>
-        <v>Sedan</v>
+        <v>SUV</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L120">
         <f ca="1">VLOOKUP(K120,Sheet1!$B$25:$C$28,2)</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N120" t="str">
         <f ca="1">VLOOKUP(M120,Sheet1!$B$30:$C$34,2)</f>
-        <v>Blue</v>
+        <v>Green</v>
       </c>
     </row>
   </sheetData>
